--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD57"/>
+  <dimension ref="A1:AP57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,105 +476,165 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>dT:CH4_Hashemi</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>dT:drm19</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>dT:drm22</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>dT:CH4_Smooke</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>dT:GriMech12</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>dT:GriMech30</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>dT:kin_20352_sm_extended</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>dT:kin_20352_sm_mechch4-c2h6_rasmussenetal2007d</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>dT:NUImech</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>dT:RAMEC</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>dT:Slavinskaya</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>dT:USCC1C3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>dT:ZhukovC1C4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>dT:ZhukovC1C7</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>dT:ZhukovKongCH4</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>OH:Aramco13</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>OH:Aramco20</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>OH:Aramco30</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>OH:CH4_Hashemi</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>OH:drm19</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>OH:drm22</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>OH:CH4_Smooke</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>OH:GriMech12</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>OH:GriMech30</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>OH:kin_20352_sm_extended</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>OH:kin_20352_sm_mechch4-c2h6_rasmussenetal2007d</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>OH:NUImech</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>OH:RAMEC</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>OH:Slavinskaya</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>OH:USCC1C3</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>OH:ZhukovC1C4</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>OH:ZhukovC1C7</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>OH:ZhukovKongCH4</t>
         </is>
@@ -609,66 +669,102 @@
         <v>148.583783009867</v>
       </c>
       <c r="J2" t="n">
+        <v>149.16036009236</v>
+      </c>
+      <c r="K2" t="n">
+        <v>107.1718916427013</v>
+      </c>
+      <c r="L2" t="n">
+        <v>103.3942519498207</v>
+      </c>
+      <c r="M2" t="n">
+        <v>492.3498660282387</v>
+      </c>
+      <c r="N2" t="n">
         <v>104.5865720445019</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>96.20360678914012</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
+        <v>101.7009717353646</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>93.98088373653407</v>
+      </c>
+      <c r="R2" t="n">
         <v>133.7311119562162</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>110.1046251780687</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>133.2445095007726</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>103.0537852319019</v>
       </c>
-      <c r="P2" t="n">
+      <c r="V2" t="n">
         <v>115.2620798925467</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="W2" t="n">
         <v>115.2615552271376</v>
       </c>
-      <c r="R2" t="n">
+      <c r="X2" t="n">
         <v>128.9125218794288</v>
       </c>
-      <c r="S2" t="n">
+      <c r="Y2" t="n">
         <v>153.8484497272634</v>
       </c>
-      <c r="T2" t="n">
+      <c r="Z2" t="n">
         <v>160.2558265513869</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AA2" t="n">
         <v>160.6552289924755</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AB2" t="n">
+        <v>161.7478413991827</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>121.4635253501632</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>117.3725664306167</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>500.0268532941087</v>
+      </c>
+      <c r="AF2" t="n">
         <v>118.4511175386119</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AG2" t="n">
         <v>108.0465793439159</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AH2" t="n">
+        <v>112.5933830258296</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>104.003681618324</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>144.2748014987552</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AK2" t="n">
         <v>123.2496404958815</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AL2" t="n">
         <v>141.2583332180419</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AM2" t="n">
         <v>114.9394816150409</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AN2" t="n">
         <v>128.5688011226901</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AO2" t="n">
         <v>128.4238281450304</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AP2" t="n">
         <v>145.1183958021821</v>
       </c>
     </row>
@@ -701,66 +797,102 @@
         <v>165.1195003603384</v>
       </c>
       <c r="J3" t="n">
+        <v>165.9249366010498</v>
+      </c>
+      <c r="K3" t="n">
+        <v>114.9937618089773</v>
+      </c>
+      <c r="L3" t="n">
+        <v>111.192353046148</v>
+      </c>
+      <c r="M3" t="n">
+        <v>499.7626805381973</v>
+      </c>
+      <c r="N3" t="n">
         <v>112.6350642068336</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>103.1025814583812</v>
       </c>
-      <c r="L3" t="n">
+      <c r="P3" t="n">
+        <v>114.8801404528894</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>103.2516064617509</v>
+      </c>
+      <c r="R3" t="n">
         <v>148.7143443461389</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>118.2484446508718</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>146.4325769197183</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>111.0071810507591</v>
       </c>
-      <c r="P3" t="n">
+      <c r="V3" t="n">
         <v>123.4422365135443</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="W3" t="n">
         <v>123.4362238041452</v>
       </c>
-      <c r="R3" t="n">
+      <c r="X3" t="n">
         <v>137.6052872047567</v>
       </c>
-      <c r="S3" t="n">
+      <c r="Y3" t="n">
         <v>167.5000136437637</v>
       </c>
-      <c r="T3" t="n">
+      <c r="Z3" t="n">
         <v>174.8533364490644</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AA3" t="n">
         <v>175.3175720742019</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AB3" t="n">
+        <v>176.6759323915654</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>127.2299167097376</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>123.0027447624347</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>500.0742252422363</v>
+      </c>
+      <c r="AF3" t="n">
         <v>124.4309605085453</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AG3" t="n">
         <v>113.1449110785866</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AH3" t="n">
+        <v>124.3495093195134</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>111.6175681571073</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>157.6973185120543</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AK3" t="n">
         <v>129.4422536087229</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AL3" t="n">
         <v>153.2198337533184</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AM3" t="n">
         <v>121.0517337868254</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AN3" t="n">
         <v>134.7123498328015</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AO3" t="n">
         <v>134.6202393376449</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AP3" t="n">
         <v>151.7653132073817</v>
       </c>
     </row>
@@ -793,66 +925,102 @@
         <v>484.8892607552228</v>
       </c>
       <c r="J4" t="n">
+        <v>472.9501827390512</v>
+      </c>
+      <c r="K4" t="n">
+        <v>291.5659236019857</v>
+      </c>
+      <c r="L4" t="n">
+        <v>287.9343815489028</v>
+      </c>
+      <c r="M4" t="n">
+        <v>500.3176305746561</v>
+      </c>
+      <c r="N4" t="n">
         <v>292.5068982423089</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>262.1224944852904</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
+        <v>326.9195564348951</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>275.6492672785129</v>
+      </c>
+      <c r="R4" t="n">
         <v>442.8194866632215</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>302.9973717331304</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>400.8284874528628</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>287.1860472921534</v>
       </c>
-      <c r="P4" t="n">
+      <c r="V4" t="n">
         <v>311.4341268737064</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="W4" t="n">
         <v>311.4310001068068</v>
       </c>
-      <c r="R4" t="n">
+      <c r="X4" t="n">
         <v>340.9999313935204</v>
       </c>
-      <c r="S4" t="n">
+      <c r="Y4" t="n">
         <v>471.2480127081012</v>
       </c>
-      <c r="T4" t="n">
+      <c r="Z4" t="n">
         <v>490.910556645277</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AA4" t="n">
         <v>495.4364864124598</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AB4" t="n">
+        <v>483.9734784932609</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>303.9144127023703</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>299.8615498532433</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>503.5575356529615</v>
+      </c>
+      <c r="AF4" t="n">
         <v>304.4375226318345</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AG4" t="n">
         <v>272.2536658964441</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AH4" t="n">
+        <v>336.7733774689879</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>284.1862776663645</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>452.105559199334</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AK4" t="n">
         <v>314.4180305812601</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AL4" t="n">
         <v>407.8791339545115</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AM4" t="n">
         <v>297.3738465954298</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AN4" t="n">
         <v>322.8154733181424</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AO4" t="n">
         <v>322.8857579718635</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AP4" t="n">
         <v>357.0870681202505</v>
       </c>
     </row>
@@ -885,66 +1053,102 @@
         <v>291.3014208076593</v>
       </c>
       <c r="J5" t="n">
+        <v>290.2023484384524</v>
+      </c>
+      <c r="K5" t="n">
+        <v>185.450103707202</v>
+      </c>
+      <c r="L5" t="n">
+        <v>181.3741476832892</v>
+      </c>
+      <c r="M5" t="n">
+        <v>499.5147175004427</v>
+      </c>
+      <c r="N5" t="n">
         <v>184.160993112661</v>
       </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>165.9126771101616</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
+        <v>203.2376002989697</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>173.6493272049304</v>
+      </c>
+      <c r="R5" t="n">
         <v>264.2134369048924</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>191.7391643026621</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>249.7368474156281</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>180.86030023469</v>
       </c>
-      <c r="P5" t="n">
+      <c r="V5" t="n">
         <v>198.2785154994234</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="W5" t="n">
         <v>198.2818972761729</v>
       </c>
-      <c r="R5" t="n">
+      <c r="X5" t="n">
         <v>218.6176897488448</v>
       </c>
-      <c r="S5" t="n">
+      <c r="Y5" t="n">
         <v>285.916102259682</v>
       </c>
-      <c r="T5" t="n">
+      <c r="Z5" t="n">
         <v>298.5046060708998</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AA5" t="n">
         <v>300.5629853445065</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AB5" t="n">
+        <v>299.8468543651343</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>196.2931399565717</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>191.8743797797601</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>501.2504509116215</v>
+      </c>
+      <c r="AF5" t="n">
         <v>194.6259794271814</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AG5" t="n">
         <v>174.85823384706</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AH5" t="n">
+        <v>211.9129315442201</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>181.084439454472</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>272.3037497772548</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AK5" t="n">
         <v>201.626376646145</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AL5" t="n">
         <v>255.7857280435597</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AM5" t="n">
         <v>189.7428964134697</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AN5" t="n">
         <v>208.3361034111668</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AO5" t="n">
         <v>208.2808357728917</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AP5" t="n">
         <v>232.29502111592</v>
       </c>
     </row>
@@ -977,66 +1181,102 @@
         <v>157.7185627439649</v>
       </c>
       <c r="J6" t="n">
+        <v>159.7136557160386</v>
+      </c>
+      <c r="K6" t="n">
+        <v>107.8164745859128</v>
+      </c>
+      <c r="L6" t="n">
+        <v>104.5382012262466</v>
+      </c>
+      <c r="M6" t="n">
+        <v>500.0010613828889</v>
+      </c>
+      <c r="N6" t="n">
         <v>106.0814045432821</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>96.09790622927468</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
+        <v>113.8859240873937</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>98.93011960928406</v>
+      </c>
+      <c r="R6" t="n">
         <v>142.0799706556661</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>110.9842286750614</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>140.1716783198694</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>104.0855814880096</v>
       </c>
-      <c r="P6" t="n">
+      <c r="V6" t="n">
         <v>115.4301805834357</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="W6" t="n">
         <v>115.4277663223968</v>
       </c>
-      <c r="R6" t="n">
+      <c r="X6" t="n">
         <v>128.1673217278045</v>
       </c>
-      <c r="S6" t="n">
+      <c r="Y6" t="n">
         <v>157.79854414318</v>
       </c>
-      <c r="T6" t="n">
+      <c r="Z6" t="n">
         <v>164.8487653917855</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AA6" t="n">
         <v>165.4496223263013</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AB6" t="n">
+        <v>167.8274155083859</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>117.0559079956434</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>113.434356986954</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>500.1010873580047</v>
+      </c>
+      <c r="AF6" t="n">
         <v>114.9450130599559</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AG6" t="n">
         <v>103.574182402906</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AH6" t="n">
+        <v>121.1902906941966</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>105.1247123862851</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>148.8689511883338</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AK6" t="n">
         <v>119.4082023359614</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AL6" t="n">
         <v>145.1718981575614</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AM6" t="n">
         <v>111.5706582344427</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AN6" t="n">
         <v>123.9033145470025</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AO6" t="n">
         <v>123.9490116131682</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AP6" t="n">
         <v>139.2951356043224</v>
       </c>
     </row>
@@ -1069,66 +1309,102 @@
         <v>499.4837111125414</v>
       </c>
       <c r="J7" t="n">
+        <v>499.9133532379624</v>
+      </c>
+      <c r="K7" t="n">
+        <v>396.1890333835487</v>
+      </c>
+      <c r="L7" t="n">
+        <v>399.5649909907686</v>
+      </c>
+      <c r="M7" t="n">
+        <v>499.3354580665609</v>
+      </c>
+      <c r="N7" t="n">
         <v>406.5928564160011</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>354.5142509524077</v>
       </c>
-      <c r="L7" t="n">
+      <c r="P7" t="n">
+        <v>468.6869029090181</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>382.1252917122151</v>
+      </c>
+      <c r="R7" t="n">
         <v>499.9909917439256</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>416.7043293107659</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>500.0448198075287</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>392.7158219698109</v>
       </c>
-      <c r="P7" t="n">
+      <c r="V7" t="n">
         <v>424.3803069913686</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="W7" t="n">
         <v>424.3821240170777</v>
       </c>
-      <c r="R7" t="n">
+      <c r="X7" t="n">
         <v>458.4211575510066</v>
       </c>
-      <c r="S7" t="n">
+      <c r="Y7" t="n">
         <v>500.0425901489022</v>
       </c>
-      <c r="T7" t="n">
+      <c r="Z7" t="n">
         <v>500.8334771663515</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AA7" t="n">
         <v>500.4640897411887</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AB7" t="n">
+        <v>500.0413533811786</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>406.3435853737265</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>409.407486172987</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>503.0753449288914</v>
+      </c>
+      <c r="AF7" t="n">
         <v>416.4000789590771</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AG7" t="n">
         <v>362.8617163606834</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AH7" t="n">
+        <v>477.0917276688542</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>389.1244765687641</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>500.5710117620153</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AK7" t="n">
         <v>426.0797129332204</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AL7" t="n">
         <v>500.1676252604582</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AM7" t="n">
         <v>401.1936328626812</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AN7" t="n">
         <v>433.8162458210185</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AO7" t="n">
         <v>433.8442164904286</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AP7" t="n">
         <v>473.1185316840618</v>
       </c>
     </row>
@@ -1161,66 +1437,102 @@
         <v>437.8000948673758</v>
       </c>
       <c r="J8" t="n">
+        <v>431.3431897058513</v>
+      </c>
+      <c r="K8" t="n">
+        <v>263.3311276436723</v>
+      </c>
+      <c r="L8" t="n">
+        <v>262.5112808271315</v>
+      </c>
+      <c r="M8" t="n">
+        <v>501.7884481424674</v>
+      </c>
+      <c r="N8" t="n">
         <v>267.0989995605305</v>
       </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
         <v>233.899714260006</v>
       </c>
-      <c r="L8" t="n">
+      <c r="P8" t="n">
+        <v>309.0572428190728</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>253.5145885083317</v>
+      </c>
+      <c r="R8" t="n">
         <v>399.9927999679654</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>275.11799423104</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>370.31079667235</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>258.1609353410338</v>
       </c>
-      <c r="P8" t="n">
+      <c r="V8" t="n">
         <v>281.6154939881131</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="W8" t="n">
         <v>281.6123595507537</v>
       </c>
-      <c r="R8" t="n">
+      <c r="X8" t="n">
         <v>306.2711009601238</v>
       </c>
-      <c r="S8" t="n">
+      <c r="Y8" t="n">
         <v>424.1033653349289</v>
       </c>
-      <c r="T8" t="n">
+      <c r="Z8" t="n">
         <v>441.1790161095008</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AA8" t="n">
         <v>445.4484168502465</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AB8" t="n">
+        <v>439.3224356675725</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>272.2759973805994</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>271.089241928748</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>505.0880080747214</v>
+      </c>
+      <c r="AF8" t="n">
         <v>275.6818472098666</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AG8" t="n">
         <v>241.1552094173755</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AH8" t="n">
+        <v>316.4197321082326</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>259.5971146350225</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>406.7125733760037</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AK8" t="n">
         <v>283.2523170284325</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AL8" t="n">
         <v>375.2746280306225</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AM8" t="n">
         <v>265.4275876380945</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AN8" t="n">
         <v>289.8073907952561</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AO8" t="n">
         <v>289.8448193563603</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AP8" t="n">
         <v>318.7902458165605</v>
       </c>
     </row>
@@ -1253,66 +1565,102 @@
         <v>74.97271197587764</v>
       </c>
       <c r="J9" t="n">
+        <v>76.90135523782594</v>
+      </c>
+      <c r="K9" t="n">
+        <v>55.5232899774786</v>
+      </c>
+      <c r="L9" t="n">
+        <v>53.49932622484652</v>
+      </c>
+      <c r="M9" t="n">
+        <v>277.0944261985168</v>
+      </c>
+      <c r="N9" t="n">
         <v>54.27145585605847</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
         <v>49.23760148267289</v>
       </c>
-      <c r="L9" t="n">
+      <c r="P9" t="n">
+        <v>56.63188521968667</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>49.57452303713367</v>
+      </c>
+      <c r="R9" t="n">
         <v>67.20963168913846</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>56.95603019413477</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>68.90310436991523</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>53.0211163379512</v>
       </c>
-      <c r="P9" t="n">
+      <c r="V9" t="n">
         <v>59.38960164442174</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="W9" t="n">
         <v>59.39084082685004</v>
       </c>
-      <c r="R9" t="n">
+      <c r="X9" t="n">
         <v>66.34677739080294</v>
       </c>
-      <c r="S9" t="n">
+      <c r="Y9" t="n">
         <v>77.24256728413708</v>
       </c>
-      <c r="T9" t="n">
+      <c r="Z9" t="n">
         <v>80.5453622062751</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AA9" t="n">
         <v>80.58262166518763</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AB9" t="n">
+        <v>82.8884309373265</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>62.33250575823542</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>60.02331429362149</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>283.8883785586687</v>
+      </c>
+      <c r="AF9" t="n">
         <v>60.83931350149456</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AG9" t="n">
         <v>54.69782642732677</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AH9" t="n">
+        <v>62.0674029552434</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>54.08759497949538</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>72.14671407796243</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AK9" t="n">
         <v>63.21099777830083</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AL9" t="n">
         <v>72.43507316204635</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AM9" t="n">
         <v>58.46181961452894</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AN9" t="n">
         <v>65.65520900692452</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AO9" t="n">
         <v>65.66372150764788</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AP9" t="n">
         <v>74.35892584869521</v>
       </c>
     </row>
@@ -1345,66 +1693,102 @@
         <v>490.3638694805847</v>
       </c>
       <c r="J10" t="n">
+        <v>490.8890171410569</v>
+      </c>
+      <c r="K10" t="n">
+        <v>274.6206665047457</v>
+      </c>
+      <c r="L10" t="n">
+        <v>300.9926355057808</v>
+      </c>
+      <c r="M10" t="n">
+        <v>502.8413192755246</v>
+      </c>
+      <c r="N10" t="n">
         <v>308.2920086119892</v>
       </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>234.1997812110921</v>
       </c>
-      <c r="L10" t="n">
+      <c r="P10" t="n">
+        <v>390.209264186685</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>312.1789704249252</v>
+      </c>
+      <c r="R10" t="n">
         <v>450.9525469621002</v>
       </c>
-      <c r="M10" t="n">
+      <c r="S10" t="n">
         <v>305.671388200654</v>
       </c>
-      <c r="N10" t="n">
+      <c r="T10" t="n">
         <v>481.1545475240169</v>
       </c>
-      <c r="O10" t="n">
+      <c r="U10" t="n">
         <v>270.288306237774</v>
       </c>
-      <c r="P10" t="n">
+      <c r="V10" t="n">
         <v>310.5230461214008</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="W10" t="n">
         <v>310.5246544625663</v>
       </c>
-      <c r="R10" t="n">
+      <c r="X10" t="n">
         <v>322.0069939547563</v>
       </c>
-      <c r="S10" t="n">
+      <c r="Y10" t="n">
         <v>478.9604985609855</v>
       </c>
-      <c r="T10" t="n">
+      <c r="Z10" t="n">
         <v>485.8057012544405</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AA10" t="n">
         <v>492.8138639746821</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AB10" t="n">
+        <v>493.4857148035077</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>277.4115655398091</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>303.6929164720775</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>506.6935150502457</v>
+      </c>
+      <c r="AF10" t="n">
         <v>310.9966707436943</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AG10" t="n">
         <v>236.5424569635075</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AH10" t="n">
+        <v>392.9596993372768</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>314.1908004421658</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>453.1466270765933</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AK10" t="n">
         <v>308.3281182413049</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AL10" t="n">
         <v>482.2535119729722</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AM10" t="n">
         <v>272.6470154554085</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AN10" t="n">
         <v>313.2153674653026</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AO10" t="n">
         <v>313.2065241496111</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AP10" t="n">
         <v>323.0470923020511</v>
       </c>
     </row>
@@ -1437,66 +1821,102 @@
         <v>110.2944838549373</v>
       </c>
       <c r="J11" t="n">
+        <v>119.4497196341091</v>
+      </c>
+      <c r="K11" t="n">
+        <v>73.50262247645509</v>
+      </c>
+      <c r="L11" t="n">
+        <v>74.14051485821741</v>
+      </c>
+      <c r="M11" t="n">
+        <v>500.0510639701471</v>
+      </c>
+      <c r="N11" t="n">
         <v>75.92389267144529</v>
       </c>
-      <c r="K11" t="n">
+      <c r="O11" t="n">
         <v>62.02173528764324</v>
       </c>
-      <c r="L11" t="n">
+      <c r="P11" t="n">
+        <v>96.69667568234665</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>76.49395167720255</v>
+      </c>
+      <c r="R11" t="n">
         <v>99.30595836219884</v>
       </c>
-      <c r="M11" t="n">
+      <c r="S11" t="n">
         <v>77.52986988237826</v>
       </c>
-      <c r="N11" t="n">
+      <c r="T11" t="n">
         <v>112.8297702581762</v>
       </c>
-      <c r="O11" t="n">
+      <c r="U11" t="n">
         <v>69.75555121747584</v>
       </c>
-      <c r="P11" t="n">
+      <c r="V11" t="n">
         <v>79.48524008901875</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="W11" t="n">
         <v>79.48468650901673</v>
       </c>
-      <c r="R11" t="n">
+      <c r="X11" t="n">
         <v>85.27809630729915</v>
       </c>
-      <c r="S11" t="n">
+      <c r="Y11" t="n">
         <v>107.4334572302531</v>
       </c>
-      <c r="T11" t="n">
+      <c r="Z11" t="n">
         <v>111.4498758336265</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AA11" t="n">
         <v>112.0849881691608</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AB11" t="n">
+        <v>121.4091069368019</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>75.65974524465868</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>76.18594892129634</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>500.1376155689341</v>
+      </c>
+      <c r="AF11" t="n">
         <v>77.95905294558564</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AG11" t="n">
         <v>63.68954147040044</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AH11" t="n">
+        <v>98.78228742382785</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>77.96994645000483</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>100.8903793434893</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AK11" t="n">
         <v>79.52651319269901</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AL11" t="n">
         <v>113.562310198403</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AM11" t="n">
         <v>71.44113070350645</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AN11" t="n">
         <v>81.50037959754708</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AO11" t="n">
         <v>81.49227600691093</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AP11" t="n">
         <v>89.9476635017449</v>
       </c>
     </row>
@@ -1529,66 +1949,102 @@
         <v>66.43802132719638</v>
       </c>
       <c r="J12" t="n">
+        <v>72.73369131862047</v>
+      </c>
+      <c r="K12" t="n">
+        <v>46.55835846273801</v>
+      </c>
+      <c r="L12" t="n">
+        <v>46.07026296457104</v>
+      </c>
+      <c r="M12" t="n">
+        <v>313.3563206210529</v>
+      </c>
+      <c r="N12" t="n">
         <v>47.1732652503344</v>
       </c>
-      <c r="K12" t="n">
+      <c r="O12" t="n">
         <v>39.44516714649396</v>
       </c>
-      <c r="L12" t="n">
+      <c r="P12" t="n">
+        <v>59.6597933194621</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>47.25816707947112</v>
+      </c>
+      <c r="R12" t="n">
         <v>59.3700090180341</v>
       </c>
-      <c r="M12" t="n">
+      <c r="S12" t="n">
         <v>48.51657232235625</v>
       </c>
-      <c r="N12" t="n">
+      <c r="T12" t="n">
         <v>68.25136121270197</v>
       </c>
-      <c r="O12" t="n">
+      <c r="U12" t="n">
         <v>44.00035472448465</v>
       </c>
-      <c r="P12" t="n">
+      <c r="V12" t="n">
         <v>49.91989451828263</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="W12" t="n">
         <v>49.91969464094917</v>
       </c>
-      <c r="R12" t="n">
+      <c r="X12" t="n">
         <v>54.06136737290132</v>
       </c>
-      <c r="S12" t="n">
+      <c r="Y12" t="n">
         <v>65.1104372723014</v>
       </c>
-      <c r="T12" t="n">
+      <c r="Z12" t="n">
         <v>67.80039515014693</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AA12" t="n">
         <v>67.99511880417658</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AB12" t="n">
+        <v>74.42405527759789</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>48.46099097590014</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>47.8756667774901</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>313.7735729834571</v>
+      </c>
+      <c r="AF12" t="n">
         <v>48.97800490431733</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AG12" t="n">
         <v>40.88695577226522</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AH12" t="n">
+        <v>61.50837445460436</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>48.53231028692596</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>60.73038666268354</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AK12" t="n">
         <v>50.25480588101226</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AL12" t="n">
         <v>68.86609295560582</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AM12" t="n">
         <v>45.44936166898248</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AN12" t="n">
         <v>51.67385630258389</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AO12" t="n">
         <v>51.69103576843897</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AP12" t="n">
         <v>57.73304928863665</v>
       </c>
     </row>
@@ -1621,66 +2077,102 @@
         <v>54.05426075284724</v>
       </c>
       <c r="J13" t="n">
+        <v>59.35743282056103</v>
+      </c>
+      <c r="K13" t="n">
+        <v>38.60915911906347</v>
+      </c>
+      <c r="L13" t="n">
+        <v>37.98135878421491</v>
+      </c>
+      <c r="M13" t="n">
+        <v>257.4985272316384</v>
+      </c>
+      <c r="N13" t="n">
         <v>38.89317175349406</v>
       </c>
-      <c r="K13" t="n">
+      <c r="O13" t="n">
         <v>32.76432533303866</v>
       </c>
-      <c r="L13" t="n">
+      <c r="P13" t="n">
+        <v>49.03210798245795</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>38.8744795749158</v>
+      </c>
+      <c r="R13" t="n">
         <v>48.1641425331331</v>
       </c>
-      <c r="M13" t="n">
+      <c r="S13" t="n">
         <v>40.08799835345405</v>
       </c>
-      <c r="N13" t="n">
+      <c r="T13" t="n">
         <v>55.66933352877153</v>
       </c>
-      <c r="O13" t="n">
+      <c r="U13" t="n">
         <v>36.44476530048451</v>
       </c>
-      <c r="P13" t="n">
+      <c r="V13" t="n">
         <v>41.29716290001301</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="W13" t="n">
         <v>41.2966422283186</v>
       </c>
-      <c r="R13" t="n">
+      <c r="X13" t="n">
         <v>44.8570564499429</v>
       </c>
-      <c r="S13" t="n">
+      <c r="Y13" t="n">
         <v>53.14170628530369</v>
       </c>
-      <c r="T13" t="n">
+      <c r="Z13" t="n">
         <v>55.40124628679416</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AA13" t="n">
         <v>55.49684377599145</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AB13" t="n">
+        <v>60.93124189216224</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>40.38664476178191</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>39.65726967641639</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>257.8891848056484</v>
+      </c>
+      <c r="AF13" t="n">
         <v>40.56843496421787</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AG13" t="n">
         <v>34.09133401845245</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AH13" t="n">
+        <v>50.76003540788216</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>40.07125019843865</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>49.42624358893498</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AK13" t="n">
         <v>41.70864194495182</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AL13" t="n">
         <v>56.22759260386306</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AM13" t="n">
         <v>37.7849685092627</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AN13" t="n">
         <v>42.94206801892615</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AO13" t="n">
         <v>42.94026172776341</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AP13" t="n">
         <v>48.17528559764197</v>
       </c>
     </row>
@@ -1713,66 +2205,102 @@
         <v>78.55156001046234</v>
       </c>
       <c r="J14" t="n">
+        <v>86.19379556730063</v>
+      </c>
+      <c r="K14" t="n">
+        <v>53.86977810130396</v>
+      </c>
+      <c r="L14" t="n">
+        <v>53.93204847588717</v>
+      </c>
+      <c r="M14" t="n">
+        <v>382.016159860932</v>
+      </c>
+      <c r="N14" t="n">
         <v>55.27390385987827</v>
       </c>
-      <c r="K14" t="n">
+      <c r="O14" t="n">
         <v>45.34968030678699</v>
       </c>
-      <c r="L14" t="n">
+      <c r="P14" t="n">
+        <v>70.77994619011059</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>56.01420797434693</v>
+      </c>
+      <c r="R14" t="n">
         <v>70.37109499124107</v>
       </c>
-      <c r="M14" t="n">
+      <c r="S14" t="n">
         <v>56.58269481150933</v>
       </c>
-      <c r="N14" t="n">
+      <c r="T14" t="n">
         <v>82.04474517635074</v>
       </c>
-      <c r="O14" t="n">
+      <c r="U14" t="n">
         <v>50.92592772483728</v>
       </c>
-      <c r="P14" t="n">
+      <c r="V14" t="n">
         <v>58.11517111464278</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="W14" t="n">
         <v>58.11390714964868</v>
       </c>
-      <c r="R14" t="n">
+      <c r="X14" t="n">
         <v>62.48868129935111</v>
       </c>
-      <c r="S14" t="n">
+      <c r="Y14" t="n">
         <v>76.69694026092857</v>
       </c>
-      <c r="T14" t="n">
+      <c r="Z14" t="n">
         <v>79.69583301220405</v>
       </c>
-      <c r="U14" t="n">
+      <c r="AA14" t="n">
         <v>80.02609297864028</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AB14" t="n">
+        <v>87.80691648112247</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>55.68144087246362</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>55.63655450983314</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>382.4044680750376</v>
+      </c>
+      <c r="AF14" t="n">
         <v>56.98398745005853</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AG14" t="n">
         <v>46.71060863970693</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AH14" t="n">
+        <v>72.55217763935234</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>57.23572412136466</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>71.670292384902</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AK14" t="n">
         <v>58.23426691663913</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AL14" t="n">
         <v>82.61080241759242</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AM14" t="n">
         <v>52.29749245105868</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AN14" t="n">
         <v>59.79296281880393</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AO14" t="n">
         <v>59.79212110581427</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AP14" t="n">
         <v>66.46107692180887</v>
       </c>
     </row>
@@ -1805,66 +2333,102 @@
         <v>499.5727443520424</v>
       </c>
       <c r="J15" t="n">
+        <v>500.1863409587677</v>
+      </c>
+      <c r="K15" t="n">
+        <v>349.4862655604551</v>
+      </c>
+      <c r="L15" t="n">
+        <v>401.3060126391096</v>
+      </c>
+      <c r="M15" t="n">
+        <v>503.4475244836179</v>
+      </c>
+      <c r="N15" t="n">
         <v>411.6154212788618</v>
       </c>
-      <c r="K15" t="n">
+      <c r="O15" t="n">
         <v>299.8234156042215</v>
       </c>
-      <c r="L15" t="n">
+      <c r="P15" t="n">
+        <v>500.0876591263336</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>429.132991100733</v>
+      </c>
+      <c r="R15" t="n">
         <v>499.952796935271</v>
       </c>
-      <c r="M15" t="n">
+      <c r="S15" t="n">
         <v>401.1721531229154</v>
       </c>
-      <c r="N15" t="n">
+      <c r="T15" t="n">
         <v>499.9154579758002</v>
       </c>
-      <c r="O15" t="n">
+      <c r="U15" t="n">
         <v>351.2434948157313</v>
       </c>
-      <c r="P15" t="n">
+      <c r="V15" t="n">
         <v>407.8215801704683</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="W15" t="n">
         <v>407.8223525893706</v>
       </c>
-      <c r="R15" t="n">
+      <c r="X15" t="n">
         <v>415.9068271536366</v>
       </c>
-      <c r="S15" t="n">
+      <c r="Y15" t="n">
         <v>500.2861727555865</v>
       </c>
-      <c r="T15" t="n">
+      <c r="Z15" t="n">
         <v>500.4735996256175</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AA15" t="n">
         <v>500.2472859332476</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AB15" t="n">
+        <v>500.9809828165377</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>351.9177153081287</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>403.6717743581808</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>508.4660761317207</v>
+      </c>
+      <c r="AF15" t="n">
         <v>413.9719057615334</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AG15" t="n">
         <v>301.9695669813834</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AH15" t="n">
+        <v>500.2346110554129</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>430.967579733551</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>500.748266092506</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AK15" t="n">
         <v>403.5662786363554</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AL15" t="n">
         <v>500.1697941368694</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AM15" t="n">
         <v>353.3996953503441</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AN15" t="n">
         <v>410.2477195224575</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AO15" t="n">
         <v>410.2331574486741</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AP15" t="n">
         <v>416.9345875516293</v>
       </c>
     </row>
@@ -1897,66 +2461,102 @@
         <v>302.7850432033279</v>
       </c>
       <c r="J16" t="n">
+        <v>316.8925438185867</v>
+      </c>
+      <c r="K16" t="n">
+        <v>168.8624353573721</v>
+      </c>
+      <c r="L16" t="n">
+        <v>192.3603471253512</v>
+      </c>
+      <c r="M16" t="n">
+        <v>503.4234648851339</v>
+      </c>
+      <c r="N16" t="n">
         <v>197.8786291969128</v>
       </c>
-      <c r="K16" t="n">
+      <c r="O16" t="n">
         <v>140.8060420259733</v>
       </c>
-      <c r="L16" t="n">
+      <c r="P16" t="n">
+        <v>262.2537658274478</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>217.2438208974629</v>
+      </c>
+      <c r="R16" t="n">
         <v>275.8721037690131</v>
       </c>
-      <c r="M16" t="n">
+      <c r="S16" t="n">
         <v>193.7049088934677</v>
       </c>
-      <c r="N16" t="n">
+      <c r="T16" t="n">
         <v>336.9041974446531</v>
       </c>
-      <c r="O16" t="n">
+      <c r="U16" t="n">
         <v>165.6230427335399</v>
       </c>
-      <c r="P16" t="n">
+      <c r="V16" t="n">
         <v>197.7578165421154</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="W16" t="n">
         <v>197.7579566878713</v>
       </c>
-      <c r="R16" t="n">
+      <c r="X16" t="n">
         <v>202.145125933585</v>
       </c>
-      <c r="S16" t="n">
+      <c r="Y16" t="n">
         <v>297.8484600819048</v>
       </c>
-      <c r="T16" t="n">
+      <c r="Z16" t="n">
         <v>299.7620119863895</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AA16" t="n">
         <v>304.1720319807133</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AB16" t="n">
+        <v>318.3128078585083</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>170.4544980667811</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>193.8935756890257</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>509.1160132973256</v>
+      </c>
+      <c r="AF16" t="n">
         <v>199.4147345246595</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AG16" t="n">
         <v>142.239129120683</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AH16" t="n">
+        <v>263.8836124518353</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>218.4534190543334</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>277.1351968575982</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AK16" t="n">
         <v>195.29701295683</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AL16" t="n">
         <v>337.4195576348838</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AM16" t="n">
         <v>167.0523727560038</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AN16" t="n">
         <v>199.363126282242</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AO16" t="n">
         <v>199.3611147238463</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AP16" t="n">
         <v>202.8638791080056</v>
       </c>
     </row>
@@ -1989,66 +2589,102 @@
         <v>205.3992533627355</v>
       </c>
       <c r="J17" t="n">
+        <v>220.7433338837558</v>
+      </c>
+      <c r="K17" t="n">
+        <v>120.6274917310065</v>
+      </c>
+      <c r="L17" t="n">
+        <v>133.8196565180521</v>
+      </c>
+      <c r="M17" t="n">
+        <v>501.9305676692214</v>
+      </c>
+      <c r="N17" t="n">
         <v>137.7015167740604</v>
       </c>
-      <c r="K17" t="n">
+      <c r="O17" t="n">
         <v>99.82090605638302</v>
       </c>
-      <c r="L17" t="n">
+      <c r="P17" t="n">
+        <v>183.3429748979637</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>150.6612691510326</v>
+      </c>
+      <c r="R17" t="n">
         <v>186.3846412457495</v>
       </c>
-      <c r="M17" t="n">
+      <c r="S17" t="n">
         <v>136.107050455655</v>
       </c>
-      <c r="N17" t="n">
+      <c r="T17" t="n">
         <v>232.4740057813646</v>
       </c>
-      <c r="O17" t="n">
+      <c r="U17" t="n">
         <v>116.647905456999</v>
       </c>
-      <c r="P17" t="n">
+      <c r="V17" t="n">
         <v>139.1222962780031</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="W17" t="n">
         <v>139.1224822594152</v>
       </c>
-      <c r="R17" t="n">
+      <c r="X17" t="n">
         <v>143.3192841681188</v>
       </c>
-      <c r="S17" t="n">
+      <c r="Y17" t="n">
         <v>201.2477996489933</v>
       </c>
-      <c r="T17" t="n">
+      <c r="Z17" t="n">
         <v>204.103626265088</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AA17" t="n">
         <v>206.6403718571653</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AB17" t="n">
+        <v>222.0398002149737</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>122.0727898094469</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>135.2015333099661</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>504.7941633121288</v>
+      </c>
+      <c r="AF17" t="n">
         <v>139.0854654987306</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AG17" t="n">
         <v>101.0682779803088</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AH17" t="n">
+        <v>184.8312387582279</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>151.746572242495</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>187.5093005724283</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AK17" t="n">
         <v>137.5523081659144</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AL17" t="n">
         <v>232.930020542349</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AM17" t="n">
         <v>117.8955739608044</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AN17" t="n">
         <v>140.5756368035677</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AO17" t="n">
         <v>140.5777163711831</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AP17" t="n">
         <v>143.9465058100071</v>
       </c>
     </row>
@@ -2081,66 +2717,102 @@
         <v>54.30986927686209</v>
       </c>
       <c r="J18" t="n">
+        <v>61.98063848325554</v>
+      </c>
+      <c r="K18" t="n">
+        <v>37.25653575365005</v>
+      </c>
+      <c r="L18" t="n">
+        <v>38.23885490853419</v>
+      </c>
+      <c r="M18" t="n">
+        <v>337.9097838317657</v>
+      </c>
+      <c r="N18" t="n">
         <v>39.40213946212151</v>
       </c>
-      <c r="K18" t="n">
+      <c r="O18" t="n">
         <v>30.70968164860459</v>
       </c>
-      <c r="L18" t="n">
+      <c r="P18" t="n">
+        <v>52.71082523372927</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>42.59633169184971</v>
+      </c>
+      <c r="R18" t="n">
         <v>48.36610081317654</v>
       </c>
-      <c r="M18" t="n">
+      <c r="S18" t="n">
         <v>39.97479557321802</v>
       </c>
-      <c r="N18" t="n">
+      <c r="T18" t="n">
         <v>63.61159947583467</v>
       </c>
-      <c r="O18" t="n">
+      <c r="U18" t="n">
         <v>35.09003883441569</v>
       </c>
-      <c r="P18" t="n">
+      <c r="V18" t="n">
         <v>41.07557389923534</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="W18" t="n">
         <v>41.07581034748515</v>
       </c>
-      <c r="R18" t="n">
+      <c r="X18" t="n">
         <v>43.37686102611748</v>
       </c>
-      <c r="S18" t="n">
+      <c r="Y18" t="n">
         <v>53.02969535612263</v>
       </c>
-      <c r="T18" t="n">
+      <c r="Z18" t="n">
         <v>54.8631419390456</v>
       </c>
-      <c r="U18" t="n">
+      <c r="AA18" t="n">
         <v>55.10542746344997</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AB18" t="n">
+        <v>62.83891924921001</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>38.23684261162533</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>39.15775952322238</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>338.1234390391053</v>
+      </c>
+      <c r="AF18" t="n">
         <v>40.3194388556256</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AG18" t="n">
         <v>31.40409317651368</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AH18" t="n">
+        <v>53.74265364938503</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>43.31430676617561</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>49.05443719579571</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AK18" t="n">
         <v>40.91168048517484</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AL18" t="n">
         <v>63.90417462012913</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AM18" t="n">
         <v>35.79631737459896</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AN18" t="n">
         <v>42.0254822575778</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AO18" t="n">
         <v>42.02494074297514</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AP18" t="n">
         <v>43.75416936729501</v>
       </c>
     </row>
@@ -2173,66 +2845,102 @@
         <v>492.8285817125806</v>
       </c>
       <c r="J19" t="n">
+        <v>498.7190044912932</v>
+      </c>
+      <c r="K19" t="n">
+        <v>247.8519344444716</v>
+      </c>
+      <c r="L19" t="n">
+        <v>304.226506767659</v>
+      </c>
+      <c r="M19" t="n">
+        <v>504.910901095576</v>
+      </c>
+      <c r="N19" t="n">
         <v>313.582977543272</v>
       </c>
-      <c r="K19" t="n">
+      <c r="O19" t="n">
         <v>209.1640970252467</v>
       </c>
-      <c r="L19" t="n">
+      <c r="P19" t="n">
+        <v>419.6236648884819</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>366.2057552557524</v>
+      </c>
+      <c r="R19" t="n">
         <v>447.0739446765502</v>
       </c>
-      <c r="M19" t="n">
+      <c r="S19" t="n">
         <v>296.4161953140564</v>
       </c>
-      <c r="N19" t="n">
+      <c r="T19" t="n">
         <v>499.9092405388694</v>
       </c>
-      <c r="O19" t="n">
+      <c r="U19" t="n">
         <v>251.5671224102232</v>
       </c>
-      <c r="P19" t="n">
+      <c r="V19" t="n">
         <v>302.5461887063876</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="W19" t="n">
         <v>302.5483618650912</v>
       </c>
-      <c r="R19" t="n">
+      <c r="X19" t="n">
         <v>303.5912238286095</v>
       </c>
-      <c r="S19" t="n">
+      <c r="Y19" t="n">
         <v>491.9992820919381</v>
       </c>
-      <c r="T19" t="n">
+      <c r="Z19" t="n">
         <v>484.7406480414761</v>
       </c>
-      <c r="U19" t="n">
+      <c r="AA19" t="n">
         <v>494.19633823167</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AB19" t="n">
+        <v>500.0066678070812</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>249.3423473081936</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>305.7120597622718</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>511.3540358415709</v>
+      </c>
+      <c r="AF19" t="n">
         <v>315.073811504114</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AG19" t="n">
         <v>210.8445727175864</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AH19" t="n">
+        <v>421.0970756563082</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>367.4248637147481</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>448.327334089221</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AK19" t="n">
         <v>298.0682245610833</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AL19" t="n">
         <v>500.203908313686</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AM19" t="n">
         <v>253.2255500777581</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AN19" t="n">
         <v>304.194533845427</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AO19" t="n">
         <v>304.1959276705809</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AP19" t="n">
         <v>450.3613274089017</v>
       </c>
     </row>
@@ -2265,66 +2973,102 @@
         <v>176.7588124078658</v>
       </c>
       <c r="J20" t="n">
+        <v>195.2904337287628</v>
+      </c>
+      <c r="K20" t="n">
+        <v>99.69530196601991</v>
+      </c>
+      <c r="L20" t="n">
+        <v>117.30931444004</v>
+      </c>
+      <c r="M20" t="n">
+        <v>501.6630512138665</v>
+      </c>
+      <c r="N20" t="n">
         <v>121.2799135751459</v>
       </c>
-      <c r="K20" t="n">
+      <c r="O20" t="n">
         <v>81.70861122369993</v>
       </c>
-      <c r="L20" t="n">
+      <c r="P20" t="n">
+        <v>167.629570972537</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>146.5304606663782</v>
+      </c>
+      <c r="R20" t="n">
         <v>159.6484386674045</v>
       </c>
-      <c r="M20" t="n">
+      <c r="S20" t="n">
         <v>117.1856238180039</v>
       </c>
-      <c r="N20" t="n">
+      <c r="T20" t="n">
         <v>224.715325823524</v>
       </c>
-      <c r="O20" t="n">
+      <c r="U20" t="n">
         <v>97.52788207777991</v>
       </c>
-      <c r="P20" t="n">
+      <c r="V20" t="n">
         <v>119.9237738636019</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="W20" t="n">
         <v>119.9229857811445</v>
       </c>
-      <c r="R20" t="n">
+      <c r="X20" t="n">
         <v>121.6080997272035</v>
       </c>
-      <c r="S20" t="n">
+      <c r="Y20" t="n">
         <v>175.4741882936515</v>
       </c>
-      <c r="T20" t="n">
+      <c r="Z20" t="n">
         <v>175.120937591721</v>
       </c>
-      <c r="U20" t="n">
+      <c r="AA20" t="n">
         <v>177.6796464350015</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AB20" t="n">
+        <v>196.162479701904</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>100.7452915927178</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>118.3542117911874</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>505.0417909580294</v>
+      </c>
+      <c r="AF20" t="n">
         <v>122.3351181510836</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AG20" t="n">
         <v>82.93361559708407</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AH20" t="n">
+        <v>168.6713807682103</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>147.3914381607718</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>160.5047700779063</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AK20" t="n">
         <v>118.3579945147725</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AL20" t="n">
         <v>225.0838913800813</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AM20" t="n">
         <v>98.73746276748066</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AN20" t="n">
         <v>121.0953526057067</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AO20" t="n">
         <v>121.0888657800215</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AP20" t="n">
         <v>501.3707202155884</v>
       </c>
     </row>
@@ -2357,66 +3101,102 @@
         <v>18.23092708046325</v>
       </c>
       <c r="J21" t="n">
+        <v>21.69959695393829</v>
+      </c>
+      <c r="K21" t="n">
+        <v>13.74252154572708</v>
+      </c>
+      <c r="L21" t="n">
+        <v>13.69479510115345</v>
+      </c>
+      <c r="M21" t="n">
+        <v>132.5291267987172</v>
+      </c>
+      <c r="N21" t="n">
         <v>14.17773327399941</v>
       </c>
-      <c r="K21" t="n">
+      <c r="O21" t="n">
         <v>11.36316681075059</v>
       </c>
-      <c r="L21" t="n">
+      <c r="P21" t="n">
+        <v>19.18917359229232</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>15.82340293088691</v>
+      </c>
+      <c r="R21" t="n">
         <v>16.02459411437907</v>
       </c>
-      <c r="M21" t="n">
+      <c r="S21" t="n">
         <v>14.525841689557</v>
       </c>
-      <c r="N21" t="n">
+      <c r="T21" t="n">
         <v>22.85660845071514</v>
       </c>
-      <c r="O21" t="n">
+      <c r="U21" t="n">
         <v>12.89217235377236</v>
       </c>
-      <c r="P21" t="n">
+      <c r="V21" t="n">
         <v>14.96592395496125</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="W21" t="n">
         <v>14.96657206208033</v>
       </c>
-      <c r="R21" t="n">
+      <c r="X21" t="n">
         <v>15.88176882371405</v>
       </c>
-      <c r="S21" t="n">
+      <c r="Y21" t="n">
         <v>17.9874405585096</v>
       </c>
-      <c r="T21" t="n">
+      <c r="Z21" t="n">
         <v>18.68153791641347</v>
       </c>
-      <c r="U21" t="n">
+      <c r="AA21" t="n">
         <v>18.65021888306169</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AB21" t="n">
+        <v>22.15381610794495</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>14.30110608353819</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>14.20576677302303</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>132.6576608714276</v>
+      </c>
+      <c r="AF21" t="n">
         <v>14.68782631954153</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AG21" t="n">
         <v>11.64560625173438</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AH21" t="n">
+        <v>19.79529892716144</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>16.25437057802182</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>16.35409372695947</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AK21" t="n">
         <v>15.07215084282937</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AL21" t="n">
         <v>23.02657169463151</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AM21" t="n">
         <v>13.1834313188752</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AN21" t="n">
         <v>15.51847286411044</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AO21" t="n">
         <v>15.51928307419565</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AP21" t="n">
         <v>16.10460591887624</v>
       </c>
     </row>
@@ -2449,66 +3229,102 @@
         <v>53.01703781851152</v>
       </c>
       <c r="J22" t="n">
+        <v>62.56153287972883</v>
+      </c>
+      <c r="K22" t="n">
+        <v>34.90581509103985</v>
+      </c>
+      <c r="L22" t="n">
+        <v>37.69254972581497</v>
+      </c>
+      <c r="M22" t="n">
+        <v>445.9153680263779</v>
+      </c>
+      <c r="N22" t="n">
         <v>39.04398127896243</v>
       </c>
-      <c r="K22" t="n">
+      <c r="O22" t="n">
         <v>28.35952548153004</v>
       </c>
-      <c r="L22" t="n">
+      <c r="P22" t="n">
+        <v>54.36222490893217</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>46.32992540543106</v>
+      </c>
+      <c r="R22" t="n">
         <v>47.35476694219443</v>
       </c>
-      <c r="M22" t="n">
+      <c r="S22" t="n">
         <v>39.01393201625176</v>
       </c>
-      <c r="N22" t="n">
+      <c r="T22" t="n">
         <v>69.86290686787356</v>
       </c>
-      <c r="O22" t="n">
+      <c r="U22" t="n">
         <v>33.10887024803635</v>
       </c>
-      <c r="P22" t="n">
+      <c r="V22" t="n">
         <v>40.07950716671062</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="W22" t="n">
         <v>40.07966663250032</v>
       </c>
-      <c r="R22" t="n">
+      <c r="X22" t="n">
         <v>41.45102282961611</v>
       </c>
-      <c r="S22" t="n">
+      <c r="Y22" t="n">
         <v>52.1952872870766</v>
       </c>
-      <c r="T22" t="n">
+      <c r="Z22" t="n">
         <v>53.26491948174198</v>
       </c>
-      <c r="U22" t="n">
+      <c r="AA22" t="n">
         <v>53.61469415455201</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AB22" t="n">
+        <v>63.15980489248069</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>35.64072604030157</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>38.39787521043982</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>446.1102947686944</v>
+      </c>
+      <c r="AF22" t="n">
         <v>39.75232216368865</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AG22" t="n">
         <v>29.11645559727549</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AH22" t="n">
+        <v>55.12174764326787</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>46.92207816198737</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>47.90050061604423</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AK22" t="n">
         <v>39.80184963392654</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AL22" t="n">
         <v>70.09879064640306</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AM22" t="n">
         <v>33.86479874364345</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AN22" t="n">
         <v>40.86251002998271</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AO22" t="n">
         <v>40.86269955208072</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AP22" t="n">
         <v>41.7998098657656</v>
       </c>
     </row>
@@ -2541,66 +3357,102 @@
         <v>26.31540765527151</v>
       </c>
       <c r="J23" t="n">
+        <v>31.47795581051027</v>
+      </c>
+      <c r="K23" t="n">
+        <v>18.94276608069531</v>
+      </c>
+      <c r="L23" t="n">
+        <v>19.40263681506519</v>
+      </c>
+      <c r="M23" t="n">
+        <v>203.5655428618014</v>
+      </c>
+      <c r="N23" t="n">
         <v>20.10129980553306</v>
       </c>
-      <c r="K23" t="n">
+      <c r="O23" t="n">
         <v>15.51678452088066</v>
       </c>
-      <c r="L23" t="n">
+      <c r="P23" t="n">
+        <v>27.63638226794873</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>23.09953039891645</v>
+      </c>
+      <c r="R23" t="n">
         <v>23.27147727382354</v>
       </c>
-      <c r="M23" t="n">
+      <c r="S23" t="n">
         <v>20.42632311110783</v>
       </c>
-      <c r="N23" t="n">
+      <c r="T23" t="n">
         <v>34.04185621525204</v>
       </c>
-      <c r="O23" t="n">
+      <c r="U23" t="n">
         <v>17.8064762571456</v>
       </c>
-      <c r="P23" t="n">
+      <c r="V23" t="n">
         <v>21.02730720278673</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="W23" t="n">
         <v>21.02674724777844</v>
       </c>
-      <c r="R23" t="n">
+      <c r="X23" t="n">
         <v>22.0799324694502</v>
       </c>
-      <c r="S23" t="n">
+      <c r="Y23" t="n">
         <v>25.90112599736981</v>
       </c>
-      <c r="T23" t="n">
+      <c r="Z23" t="n">
         <v>26.74714096973619</v>
       </c>
-      <c r="U23" t="n">
+      <c r="AA23" t="n">
         <v>26.78214635794866</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AB23" t="n">
+        <v>31.96740933507572</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>19.54473558735572</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>19.96066066785521</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>203.7118148649576</v>
+      </c>
+      <c r="AF23" t="n">
         <v>20.66324534685289</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AG23" t="n">
         <v>15.8821842776541</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AH23" t="n">
+        <v>28.27460573156202</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>23.57754815027885</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>23.671576161087</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AK23" t="n">
         <v>21.046625531943</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AL23" t="n">
         <v>34.22877425919208</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AM23" t="n">
         <v>18.22281544661361</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AN23" t="n">
         <v>21.64097132798579</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AO23" t="n">
         <v>21.6420544850463</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AP23" t="n">
         <v>22.3364254758423</v>
       </c>
     </row>
@@ -2633,66 +3485,102 @@
         <v>99.32596196620644</v>
       </c>
       <c r="J24" t="n">
+        <v>114.3253479559151</v>
+      </c>
+      <c r="K24" t="n">
+        <v>59.90699355877424</v>
+      </c>
+      <c r="L24" t="n">
+        <v>68.39798604587857</v>
+      </c>
+      <c r="M24" t="n">
+        <v>500.3883888305411</v>
+      </c>
+      <c r="N24" t="n">
         <v>70.83795684659961</v>
       </c>
-      <c r="K24" t="n">
+      <c r="O24" t="n">
         <v>48.67452887068865</v>
       </c>
-      <c r="L24" t="n">
+      <c r="P24" t="n">
+        <v>99.11876372847554</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>86.57322920750269</v>
+      </c>
+      <c r="R24" t="n">
         <v>89.36115402743869</v>
       </c>
-      <c r="M24" t="n">
+      <c r="S24" t="n">
         <v>69.33447502436039</v>
       </c>
-      <c r="N24" t="n">
+      <c r="T24" t="n">
         <v>131.7764923028239</v>
       </c>
-      <c r="O24" t="n">
+      <c r="U24" t="n">
         <v>57.71832104980513</v>
       </c>
-      <c r="P24" t="n">
+      <c r="V24" t="n">
         <v>71.06672448032508</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="W24" t="n">
         <v>71.06705487806964</v>
       </c>
-      <c r="R24" t="n">
+      <c r="X24" t="n">
         <v>72.53673249626776</v>
       </c>
-      <c r="S24" t="n">
+      <c r="Y24" t="n">
         <v>98.36958310094484</v>
       </c>
-      <c r="T24" t="n">
+      <c r="Z24" t="n">
         <v>98.93831821988364</v>
       </c>
-      <c r="U24" t="n">
+      <c r="AA24" t="n">
         <v>100.0637153733218</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AB24" t="n">
+        <v>115.027808658989</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>60.77352404774251</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>69.24901597308467</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>502.1477698929431</v>
+      </c>
+      <c r="AF24" t="n">
         <v>71.6980579946637</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AG24" t="n">
         <v>49.70248116341612</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AH24" t="n">
+        <v>99.97901556785413</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>87.28372326311016</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>90.05008700976563</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AK24" t="n">
         <v>70.30041851320145</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AL24" t="n">
         <v>132.0758634882214</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AM24" t="n">
         <v>58.74031091145358</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AN24" t="n">
         <v>72.02650330586202</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AO24" t="n">
         <v>72.0212619064915</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AP24" t="n">
         <v>511.4185904482055</v>
       </c>
     </row>
@@ -2725,66 +3613,102 @@
         <v>107.6040947088774</v>
       </c>
       <c r="J25" t="n">
+        <v>131.558545399618</v>
+      </c>
+      <c r="K25" t="n">
+        <v>82.14180418943639</v>
+      </c>
+      <c r="L25" t="n">
+        <v>86.97132117757295</v>
+      </c>
+      <c r="M25" t="n">
+        <v>505.5696203894817</v>
+      </c>
+      <c r="N25" t="n">
         <v>90.56826619817073</v>
       </c>
-      <c r="K25" t="n">
+      <c r="O25" t="n">
         <v>55.24213684749217</v>
       </c>
-      <c r="L25" t="n">
+      <c r="P25" t="n">
+        <v>124.955580720692</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>122.7577758427428</v>
+      </c>
+      <c r="R25" t="n">
         <v>96.17144006181586</v>
       </c>
-      <c r="M25" t="n">
+      <c r="S25" t="n">
         <v>77.2471992949031</v>
       </c>
-      <c r="N25" t="n">
+      <c r="T25" t="n">
         <v>183.190802056496</v>
       </c>
-      <c r="O25" t="n">
+      <c r="U25" t="n">
         <v>66.97137234929352</v>
       </c>
-      <c r="P25" t="n">
+      <c r="V25" t="n">
         <v>77.99815937630866</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="W25" t="n">
         <v>77.99815765718377</v>
       </c>
-      <c r="R25" t="n">
+      <c r="X25" t="n">
         <v>78.89845606100319</v>
       </c>
-      <c r="S25" t="n">
+      <c r="Y25" t="n">
         <v>109.715140076309</v>
       </c>
-      <c r="T25" t="n">
+      <c r="Z25" t="n">
         <v>106.4794410761856</v>
       </c>
-      <c r="U25" t="n">
+      <c r="AA25" t="n">
         <v>108.5187275765585</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AB25" t="n">
+        <v>132.2204290484285</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>83.2344100493997</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>88.07742553227412</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>514.8668639730414</v>
+      </c>
+      <c r="AF25" t="n">
         <v>91.66667915821348</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AG25" t="n">
         <v>58.02728635803547</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AH25" t="n">
+        <v>125.4593513965438</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>123.7050065388166</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>96.99400056593869</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AK25" t="n">
         <v>78.48353261975828</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AL25" t="n">
         <v>244.3816694339946</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AM25" t="n">
         <v>69.72762133814031</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AN25" t="n">
         <v>79.22699987934622</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AO25" t="n">
         <v>79.22758684340708</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AP25" t="n">
         <v>508.3819014202145</v>
       </c>
     </row>
@@ -2817,66 +3741,102 @@
         <v>38.60898511719439</v>
       </c>
       <c r="J26" t="n">
+        <v>49.71379474858521</v>
+      </c>
+      <c r="K26" t="n">
+        <v>27.34170259293975</v>
+      </c>
+      <c r="L26" t="n">
+        <v>30.56692896115708</v>
+      </c>
+      <c r="M26" t="n">
+        <v>500.1864333743081</v>
+      </c>
+      <c r="N26" t="n">
         <v>31.97591127610263</v>
       </c>
-      <c r="K26" t="n">
+      <c r="O26" t="n">
         <v>20.6415717502335</v>
       </c>
-      <c r="L26" t="n">
+      <c r="P26" t="n">
+        <v>47.12063492970803</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>45.64184270519334</v>
+      </c>
+      <c r="R26" t="n">
         <v>34.83506682751366</v>
       </c>
-      <c r="M26" t="n">
+      <c r="S26" t="n">
         <v>29.92253483981238</v>
       </c>
-      <c r="N26" t="n">
+      <c r="T26" t="n">
         <v>66.67766772640253</v>
       </c>
-      <c r="O26" t="n">
+      <c r="U26" t="n">
         <v>24.66054932894558</v>
       </c>
-      <c r="P26" t="n">
+      <c r="V26" t="n">
         <v>30.39682458031395</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="W26" t="n">
         <v>30.39646528152518</v>
       </c>
-      <c r="R26" t="n">
+      <c r="X26" t="n">
         <v>30.94820782896039</v>
       </c>
-      <c r="S26" t="n">
+      <c r="Y26" t="n">
         <v>39.21398725981991</v>
       </c>
-      <c r="T26" t="n">
+      <c r="Z26" t="n">
         <v>38.82352349449859</v>
       </c>
-      <c r="U26" t="n">
+      <c r="AA26" t="n">
         <v>39.18640594064976</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AB26" t="n">
+        <v>50.15855820164364</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>28.07362251294665</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>31.29895443812526</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>500.7341369977163</v>
+      </c>
+      <c r="AF26" t="n">
         <v>32.70495278051477</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AG26" t="n">
         <v>25.07337694041879</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AH26" t="n">
+        <v>47.74291371108362</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>46.28027930128672</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>35.36974331908118</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AK26" t="n">
         <v>30.73809922714143</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AL26" t="n">
         <v>79.36598368474912</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AM26" t="n">
         <v>64.96084008801948</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AN26" t="n">
         <v>31.20837006397984</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AO26" t="n">
         <v>31.21107439136976</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AP26" t="n">
         <v>526.1157646979225</v>
       </c>
     </row>
@@ -2909,66 +3869,102 @@
         <v>125.3140404986093</v>
       </c>
       <c r="J27" t="n">
+        <v>154.8347936132016</v>
+      </c>
+      <c r="K27" t="n">
+        <v>114.2654177112804</v>
+      </c>
+      <c r="L27" t="n">
+        <v>109.1457668651604</v>
+      </c>
+      <c r="M27" t="n">
+        <v>492.2176115393166</v>
+      </c>
+      <c r="N27" t="n">
         <v>113.5663792171389</v>
       </c>
-      <c r="K27" t="n">
+      <c r="O27" t="n">
         <v>68.6754099702638</v>
       </c>
-      <c r="L27" t="n">
+      <c r="P27" t="n">
+        <v>149.3373814665769</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>148.5153744013965</v>
+      </c>
+      <c r="R27" t="n">
         <v>111.4550133233932</v>
       </c>
-      <c r="M27" t="n">
+      <c r="S27" t="n">
         <v>91.31832137064769</v>
       </c>
-      <c r="N27" t="n">
+      <c r="T27" t="n">
         <v>222.1706222960421</v>
       </c>
-      <c r="O27" t="n">
+      <c r="U27" t="n">
         <v>83.40233250172889</v>
       </c>
-      <c r="P27" t="n">
+      <c r="V27" t="n">
         <v>91.87881198160632</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="W27" t="n">
         <v>91.88178662574944</v>
       </c>
-      <c r="R27" t="n">
+      <c r="X27" t="n">
         <v>92.95789265841262</v>
       </c>
-      <c r="S27" t="n">
+      <c r="Y27" t="n">
         <v>127.8475822882208</v>
       </c>
-      <c r="T27" t="n">
+      <c r="Z27" t="n">
         <v>123.6484115188387</v>
       </c>
-      <c r="U27" t="n">
+      <c r="AA27" t="n">
         <v>126.4123136568693</v>
       </c>
-      <c r="V27" t="n">
+      <c r="AB27" t="n">
+        <v>155.5788881897219</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>115.5512106015041</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>110.4336470472342</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>506.4102960046394</v>
+      </c>
+      <c r="AF27" t="n">
         <v>114.8444702008107</v>
       </c>
-      <c r="W27" t="n">
+      <c r="AG27" t="n">
         <v>73.85134326477667</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AH27" t="n">
+        <v>149.9704410201886</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>149.219923968072</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>112.4093327245023</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AK27" t="n">
         <v>92.75449297621832</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AL27" t="n">
         <v>247.9676529597547</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AM27" t="n">
         <v>88.92792379466307</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AN27" t="n">
         <v>93.31448893496147</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AO27" t="n">
         <v>93.31267979028402</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AP27" t="n">
         <v>502.8357625604961</v>
       </c>
     </row>
@@ -3001,66 +3997,102 @@
         <v>32.49938603322849</v>
       </c>
       <c r="J28" t="n">
+        <v>45.54997987629962</v>
+      </c>
+      <c r="K28" t="n">
+        <v>44.89860305693251</v>
+      </c>
+      <c r="L28" t="n">
+        <v>35.80923149249127</v>
+      </c>
+      <c r="M28" t="n">
+        <v>499.2955621071361</v>
+      </c>
+      <c r="N28" t="n">
         <v>37.47873548324953</v>
       </c>
-      <c r="K28" t="n">
+      <c r="O28" t="n">
         <v>22.70163268973424</v>
       </c>
-      <c r="L28" t="n">
+      <c r="P28" t="n">
+        <v>50.18921327885083</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>50.22228190199169</v>
+      </c>
+      <c r="R28" t="n">
         <v>29.51516469921138</v>
       </c>
-      <c r="M28" t="n">
+      <c r="S28" t="n">
         <v>28.80709093140314</v>
       </c>
-      <c r="N28" t="n">
+      <c r="T28" t="n">
         <v>72.0335499506057</v>
       </c>
-      <c r="O28" t="n">
+      <c r="U28" t="n">
         <v>27.22215138259259</v>
       </c>
-      <c r="P28" t="n">
+      <c r="V28" t="n">
         <v>28.78657789347792</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="W28" t="n">
         <v>28.78613591185649</v>
       </c>
-      <c r="R28" t="n">
+      <c r="X28" t="n">
         <v>29.21097611857764</v>
       </c>
-      <c r="S28" t="n">
+      <c r="Y28" t="n">
         <v>33.62366843725345</v>
       </c>
-      <c r="T28" t="n">
+      <c r="Z28" t="n">
         <v>506.6640882384838</v>
       </c>
-      <c r="U28" t="n">
+      <c r="AA28" t="n">
         <v>33.593888303787</v>
       </c>
-      <c r="V28" t="n">
+      <c r="AB28" t="n">
+        <v>46.26352046594786</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>58.69714503726134</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>37.2250788189118</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>503.4039041690896</v>
+      </c>
+      <c r="AF28" t="n">
         <v>38.88921032805202</v>
       </c>
-      <c r="W28" t="n">
+      <c r="AG28" t="n">
         <v>27.29943515288605</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AH28" t="n">
+        <v>52.35556246678759</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>52.79487551513885</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>30.38257280655057</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AK28" t="n">
         <v>30.52864109397617</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AL28" t="n">
         <v>80.34710468103114</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AM28" t="n">
         <v>145.347898645547</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AN28" t="n">
         <v>30.49173183074032</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AO28" t="n">
         <v>30.49169848603145</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AP28" t="n">
         <v>514.1011324188158</v>
       </c>
     </row>
@@ -3093,66 +4125,102 @@
         <v>94.59807598466597</v>
       </c>
       <c r="J29" t="n">
+        <v>134.3817698001087</v>
+      </c>
+      <c r="K29" t="n">
+        <v>329.892468080987</v>
+      </c>
+      <c r="L29" t="n">
+        <v>166.8185113774618</v>
+      </c>
+      <c r="M29" t="n">
+        <v>526.9488542001329</v>
+      </c>
+      <c r="N29" t="n">
         <v>173.0244697428289</v>
       </c>
-      <c r="K29" t="n">
+      <c r="O29" t="n">
         <v>111.9228559527921</v>
       </c>
-      <c r="L29" t="n">
+      <c r="P29" t="n">
+        <v>154.2568525225441</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>150.2944937741914</v>
+      </c>
+      <c r="R29" t="n">
         <v>89.13819178213535</v>
       </c>
-      <c r="M29" t="n">
+      <c r="S29" t="n">
         <v>104.5449570377225</v>
       </c>
-      <c r="N29" t="n">
+      <c r="T29" t="n">
         <v>203.7172917116755</v>
       </c>
-      <c r="O29" t="n">
+      <c r="U29" t="n">
         <v>134.6783760908058</v>
       </c>
-      <c r="P29" t="n">
+      <c r="V29" t="n">
         <v>104.0468778270973</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="W29" t="n">
         <v>104.0493442491021</v>
       </c>
-      <c r="R29" t="n">
+      <c r="X29" t="n">
         <v>107.0652208746425</v>
       </c>
-      <c r="S29" t="n">
+      <c r="Y29" t="n">
         <v>95.98619120968183</v>
       </c>
-      <c r="T29" t="n">
+      <c r="Z29" t="n">
         <v>511.0800275398734</v>
       </c>
-      <c r="U29" t="n">
+      <c r="AA29" t="n">
         <v>97.93199948132464</v>
       </c>
-      <c r="V29" t="n">
+      <c r="AB29" t="n">
+        <v>135.5474872680349</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>350.3621412568469</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>184.2571886022801</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>579.2871978711494</v>
+      </c>
+      <c r="AF29" t="n">
         <v>212.4941501176166</v>
       </c>
-      <c r="W29" t="n">
+      <c r="AG29" t="n">
         <v>120.2541133785341</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AH29" t="n">
+        <v>947.5877785841493</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>167.6905378928107</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>91.34473207129817</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AK29" t="n">
         <v>172.1167371357869</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AL29" t="n">
         <v>218.859941969536</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AM29" t="n">
         <v>468.5394330511564</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AN29" t="n">
         <v>515.8775093046993</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AO29" t="n">
         <v>513.2293166436</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AP29" t="n">
         <v>502.9969338343778</v>
       </c>
     </row>
@@ -3185,66 +4253,102 @@
         <v>500.9104906174296</v>
       </c>
       <c r="J30" t="n">
+        <v>499.8453337417819</v>
+      </c>
+      <c r="K30" t="n">
+        <v>499.4849243278047</v>
+      </c>
+      <c r="L30" t="n">
+        <v>502.4651242469741</v>
+      </c>
+      <c r="M30" t="n">
+        <v>503.7383696197478</v>
+      </c>
+      <c r="N30" t="n">
         <v>499.6541476988509</v>
       </c>
-      <c r="K30" t="n">
+      <c r="O30" t="n">
         <v>501.4300038701316</v>
       </c>
-      <c r="L30" t="n">
+      <c r="P30" t="n">
+        <v>498.9485085146924</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>499.0138749276521</v>
+      </c>
+      <c r="R30" t="n">
         <v>504.1903899346092</v>
       </c>
-      <c r="M30" t="n">
+      <c r="S30" t="n">
         <v>498.719494925675</v>
       </c>
-      <c r="N30" t="n">
+      <c r="T30" t="n">
         <v>502.3552903909205</v>
       </c>
-      <c r="O30" t="n">
+      <c r="U30" t="n">
         <v>499.3208954378259</v>
       </c>
-      <c r="P30" t="n">
+      <c r="V30" t="n">
         <v>499.3000893489639</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="W30" t="n">
         <v>503.6060275627199</v>
       </c>
-      <c r="R30" t="n">
+      <c r="X30" t="n">
         <v>500.6770436248123</v>
       </c>
-      <c r="S30" t="n">
+      <c r="Y30" t="n">
         <v>505.1010240534527</v>
       </c>
-      <c r="T30" t="n">
+      <c r="Z30" t="n">
         <v>505.0664325988679</v>
       </c>
-      <c r="U30" t="n">
+      <c r="AA30" t="n">
         <v>501.8688646102793</v>
       </c>
-      <c r="V30" t="n">
+      <c r="AB30" t="n">
+        <v>500.9793409752377</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>500.1720771814691</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>505.4443166185919</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>509.2373112587925</v>
+      </c>
+      <c r="AF30" t="n">
         <v>502.644739490488</v>
       </c>
-      <c r="W30" t="n">
+      <c r="AG30" t="n">
         <v>503.6152249689981</v>
       </c>
-      <c r="X30" t="n">
+      <c r="AH30" t="n">
+        <v>501.5666083842711</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>500.3513957209915</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>509.8133406955523</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AK30" t="n">
         <v>501.706399264745</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AL30" t="n">
         <v>504.9444214159361</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AM30" t="n">
         <v>501.6476064918463</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AN30" t="n">
         <v>501.3556186362234</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AO30" t="n">
         <v>507.6481241436092</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AP30" t="n">
         <v>502.8179219983961</v>
       </c>
     </row>
@@ -3277,66 +4381,102 @@
         <v>167.4268023594049</v>
       </c>
       <c r="J31" t="n">
+        <v>168.4864899617325</v>
+      </c>
+      <c r="K31" t="n">
+        <v>115.479656951728</v>
+      </c>
+      <c r="L31" t="n">
+        <v>111.7663352311803</v>
+      </c>
+      <c r="M31" t="n">
+        <v>500.2329960412447</v>
+      </c>
+      <c r="N31" t="n">
         <v>113.2697080793759</v>
       </c>
-      <c r="K31" t="n">
+      <c r="O31" t="n">
         <v>103.4012283742653</v>
       </c>
-      <c r="L31" t="n">
+      <c r="P31" t="n">
+        <v>117.5768759101284</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>104.500769686085</v>
+      </c>
+      <c r="R31" t="n">
         <v>150.8289538691153</v>
       </c>
-      <c r="M31" t="n">
+      <c r="S31" t="n">
         <v>118.7903045977242</v>
       </c>
-      <c r="N31" t="n">
+      <c r="T31" t="n">
         <v>148.2175704126531</v>
       </c>
-      <c r="O31" t="n">
+      <c r="U31" t="n">
         <v>111.5535978693637</v>
       </c>
-      <c r="P31" t="n">
+      <c r="V31" t="n">
         <v>123.845753649259</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="W31" t="n">
         <v>123.848454624221</v>
       </c>
-      <c r="R31" t="n">
+      <c r="X31" t="n">
         <v>137.877024673475</v>
       </c>
-      <c r="S31" t="n">
+      <c r="Y31" t="n">
         <v>168.8677567453996</v>
       </c>
-      <c r="T31" t="n">
+      <c r="Z31" t="n">
         <v>176.3309737982039</v>
       </c>
-      <c r="U31" t="n">
+      <c r="AA31" t="n">
         <v>176.9064853351346</v>
       </c>
-      <c r="V31" t="n">
+      <c r="AB31" t="n">
+        <v>178.4489694748479</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>126.6845147817797</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>122.6894691241617</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>500.5879326443344</v>
+      </c>
+      <c r="AF31" t="n">
         <v>124.1235213134451</v>
       </c>
-      <c r="W31" t="n">
+      <c r="AG31" t="n">
         <v>112.6699459895127</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AH31" t="n">
+        <v>126.3973242996852</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>112.290879726632</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>159.1922187228026</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="AK31" t="n">
         <v>129.2125264286497</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AL31" t="n">
         <v>154.4554395285579</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AM31" t="n">
         <v>120.8789790336998</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AN31" t="n">
         <v>134.202903811433</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AO31" t="n">
         <v>134.3746410307821</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AP31" t="n">
         <v>151.1801591264923</v>
       </c>
     </row>
@@ -3369,66 +4509,102 @@
         <v>465.6546125957167</v>
       </c>
       <c r="J32" t="n">
+        <v>455.5295373274694</v>
+      </c>
+      <c r="K32" t="n">
+        <v>280.5099752879016</v>
+      </c>
+      <c r="L32" t="n">
+        <v>277.4183447741198</v>
+      </c>
+      <c r="M32" t="n">
+        <v>499.6481868235013</v>
+      </c>
+      <c r="N32" t="n">
         <v>281.9227832016359</v>
       </c>
-      <c r="K32" t="n">
+      <c r="O32" t="n">
         <v>251.4835915331202</v>
       </c>
-      <c r="L32" t="n">
+      <c r="P32" t="n">
+        <v>317.5695192608084</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>266.1260410290981</v>
+      </c>
+      <c r="R32" t="n">
         <v>425.2240882032083</v>
       </c>
-      <c r="M32" t="n">
+      <c r="S32" t="n">
         <v>291.7382967929663</v>
       </c>
-      <c r="N32" t="n">
+      <c r="T32" t="n">
         <v>387.0912306886628</v>
       </c>
-      <c r="O32" t="n">
+      <c r="U32" t="n">
         <v>275.9310895606665</v>
       </c>
-      <c r="P32" t="n">
+      <c r="V32" t="n">
         <v>299.6320663624223</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="W32" t="n">
         <v>299.634287647605</v>
       </c>
-      <c r="R32" t="n">
+      <c r="X32" t="n">
         <v>327.7026313892684</v>
       </c>
-      <c r="S32" t="n">
+      <c r="Y32" t="n">
         <v>452.3438999007082</v>
       </c>
-      <c r="T32" t="n">
+      <c r="Z32" t="n">
         <v>471.1130641712456</v>
       </c>
-      <c r="U32" t="n">
+      <c r="AA32" t="n">
         <v>475.4552184005361</v>
       </c>
-      <c r="V32" t="n">
+      <c r="AB32" t="n">
+        <v>465.8037205252639</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>291.8316916700045</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>288.5028355550975</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>502.4274675231253</v>
+      </c>
+      <c r="AF32" t="n">
         <v>292.9298625367447</v>
       </c>
-      <c r="W32" t="n">
+      <c r="AG32" t="n">
         <v>260.8868251067818</v>
       </c>
-      <c r="X32" t="n">
+      <c r="AH32" t="n">
+        <v>326.7414746432123</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>274.0085402378308</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>433.7987499076112</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AK32" t="n">
         <v>302.2361019448006</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AL32" t="n">
         <v>393.600144995536</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AM32" t="n">
         <v>285.345593164076</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AN32" t="n">
         <v>310.2352713582358</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AO32" t="n">
         <v>310.1760293015901</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AP32" t="n">
         <v>342.6765539089277</v>
       </c>
     </row>
@@ -3461,66 +4637,102 @@
         <v>499.7813637451728</v>
       </c>
       <c r="J33" t="n">
+        <v>499.9276946614298</v>
+      </c>
+      <c r="K33" t="n">
+        <v>499.9954575548205</v>
+      </c>
+      <c r="L33" t="n">
+        <v>499.7599834728111</v>
+      </c>
+      <c r="M33" t="n">
+        <v>501.8978442367203</v>
+      </c>
+      <c r="N33" t="n">
         <v>500.1658354286702</v>
       </c>
-      <c r="K33" t="n">
+      <c r="O33" t="n">
         <v>479.8033357497058</v>
       </c>
-      <c r="L33" t="n">
+      <c r="P33" t="n">
+        <v>500.3110625957686</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>499.9959653431457</v>
+      </c>
+      <c r="R33" t="n">
         <v>499.4949771879585</v>
       </c>
-      <c r="M33" t="n">
+      <c r="S33" t="n">
         <v>500.2523267946847</v>
       </c>
-      <c r="N33" t="n">
+      <c r="T33" t="n">
         <v>500.1076438579252</v>
       </c>
-      <c r="O33" t="n">
+      <c r="U33" t="n">
         <v>499.9340402395788</v>
       </c>
-      <c r="P33" t="n">
+      <c r="V33" t="n">
         <v>500.0148055395757</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="W33" t="n">
         <v>499.9582301396058</v>
       </c>
-      <c r="R33" t="n">
+      <c r="X33" t="n">
         <v>500.1100771409308</v>
       </c>
-      <c r="S33" t="n">
+      <c r="Y33" t="n">
         <v>501.0566347526766</v>
       </c>
-      <c r="T33" t="n">
+      <c r="Z33" t="n">
         <v>500.1710737283566</v>
       </c>
-      <c r="U33" t="n">
+      <c r="AA33" t="n">
         <v>501.7083479535283</v>
       </c>
-      <c r="V33" t="n">
+      <c r="AB33" t="n">
+        <v>500.2497701967733</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>500.2194281163516</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>500.0126241179244</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>506.4738956175714</v>
+      </c>
+      <c r="AF33" t="n">
         <v>500.4064026869541</v>
       </c>
-      <c r="W33" t="n">
+      <c r="AG33" t="n">
         <v>489.8409410067634</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AH33" t="n">
+        <v>501.126564791669</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>500.0010418585341</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>500.0482116145952</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AK33" t="n">
         <v>500.7568093056408</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AL33" t="n">
         <v>500.4176418002325</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AM33" t="n">
         <v>500.0628714857388</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AN33" t="n">
         <v>500.1590314882509</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AO33" t="n">
         <v>500.1894998235621</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AP33" t="n">
         <v>500.8686902676655</v>
       </c>
     </row>
@@ -3553,66 +4765,102 @@
         <v>263.4341293811121</v>
       </c>
       <c r="J34" t="n">
+        <v>264.0795149159526</v>
+      </c>
+      <c r="K34" t="n">
+        <v>168.556400096326</v>
+      </c>
+      <c r="L34" t="n">
+        <v>165.0494342532806</v>
+      </c>
+      <c r="M34" t="n">
+        <v>500.6780205358591</v>
+      </c>
+      <c r="N34" t="n">
         <v>167.6936462864284</v>
       </c>
-      <c r="K34" t="n">
+      <c r="O34" t="n">
         <v>150.1292576169951</v>
       </c>
-      <c r="L34" t="n">
+      <c r="P34" t="n">
+        <v>187.7867773003163</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>158.7122019060626</v>
+      </c>
+      <c r="R34" t="n">
         <v>238.7863995340982</v>
       </c>
-      <c r="M34" t="n">
+      <c r="S34" t="n">
         <v>174.3750617980145</v>
       </c>
-      <c r="N34" t="n">
+      <c r="T34" t="n">
         <v>228.0965943026852</v>
       </c>
-      <c r="O34" t="n">
+      <c r="U34" t="n">
         <v>163.9869217633967</v>
       </c>
-      <c r="P34" t="n">
+      <c r="V34" t="n">
         <v>180.1376079100576</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="W34" t="n">
         <v>180.1372033558967</v>
       </c>
-      <c r="R34" t="n">
+      <c r="X34" t="n">
         <v>198.3465323352227</v>
       </c>
-      <c r="S34" t="n">
+      <c r="Y34" t="n">
         <v>258.3052552424043</v>
       </c>
-      <c r="T34" t="n">
+      <c r="Z34" t="n">
         <v>269.6480277782404</v>
       </c>
-      <c r="U34" t="n">
+      <c r="AA34" t="n">
         <v>271.4246921127779</v>
       </c>
-      <c r="V34" t="n">
+      <c r="AB34" t="n">
+        <v>272.4337390286394</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>177.9623327686899</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>174.1242515782029</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>502.1950276633002</v>
+      </c>
+      <c r="AF34" t="n">
         <v>176.7622288489807</v>
       </c>
-      <c r="W34" t="n">
+      <c r="AG34" t="n">
         <v>157.8026995810426</v>
       </c>
-      <c r="X34" t="n">
+      <c r="AH34" t="n">
+        <v>195.3860399710812</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>165.1098045860988</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>245.7594760109379</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AK34" t="n">
         <v>183.0102216834159</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AL34" t="n">
         <v>233.2978746224222</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AM34" t="n">
         <v>171.7036768159514</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AN34" t="n">
         <v>188.799019172468</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AO34" t="n">
         <v>188.7770519074759</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AP34" t="n">
         <v>210.3789127510868</v>
       </c>
     </row>
@@ -3645,66 +4893,102 @@
         <v>260.9602031103883</v>
       </c>
       <c r="J35" t="n">
+        <v>261.9506411711757</v>
+      </c>
+      <c r="K35" t="n">
+        <v>166.8179032320749</v>
+      </c>
+      <c r="L35" t="n">
+        <v>163.5023656249134</v>
+      </c>
+      <c r="M35" t="n">
+        <v>498.5486143493528</v>
+      </c>
+      <c r="N35" t="n">
         <v>166.1591785966946</v>
       </c>
-      <c r="K35" t="n">
+      <c r="O35" t="n">
         <v>148.3797223364946</v>
       </c>
-      <c r="L35" t="n">
+      <c r="P35" t="n">
+        <v>187.101467121126</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>157.4767474866309</v>
+      </c>
+      <c r="R35" t="n">
         <v>236.5570537028123</v>
       </c>
-      <c r="M35" t="n">
+      <c r="S35" t="n">
         <v>172.6557793895238</v>
       </c>
-      <c r="N35" t="n">
+      <c r="T35" t="n">
         <v>226.4311244938165</v>
       </c>
-      <c r="O35" t="n">
+      <c r="U35" t="n">
         <v>162.2200146811483</v>
       </c>
-      <c r="P35" t="n">
+      <c r="V35" t="n">
         <v>178.2542988607486</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="W35" t="n">
         <v>178.2546046857098</v>
       </c>
-      <c r="R35" t="n">
+      <c r="X35" t="n">
         <v>196.1077775689663</v>
       </c>
-      <c r="S35" t="n">
+      <c r="Y35" t="n">
         <v>255.6038337457198</v>
       </c>
-      <c r="T35" t="n">
+      <c r="Z35" t="n">
         <v>266.8408154309186</v>
       </c>
-      <c r="U35" t="n">
+      <c r="AA35" t="n">
         <v>268.6327746461561</v>
       </c>
-      <c r="V35" t="n">
+      <c r="AB35" t="n">
+        <v>269.975722019738</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>175.8426616613848</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>172.2153943970518</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>500.2524007080754</v>
+      </c>
+      <c r="AF35" t="n">
         <v>174.8550033081232</v>
       </c>
-      <c r="W35" t="n">
+      <c r="AG35" t="n">
         <v>155.7467772724737</v>
       </c>
-      <c r="X35" t="n">
+      <c r="AH35" t="n">
+        <v>194.3986002084308</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>163.6372013009879</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>243.276505621299</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AK35" t="n">
         <v>180.9649057588358</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AL35" t="n">
         <v>231.4029143502797</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AM35" t="n">
         <v>169.60027130562</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AN35" t="n">
         <v>186.6255511844344</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AO35" t="n">
         <v>186.5926115343584</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AP35" t="n">
         <v>207.8184542135913</v>
       </c>
     </row>
@@ -3737,66 +5021,102 @@
         <v>409.9731760486478</v>
       </c>
       <c r="J36" t="n">
+        <v>405.2526397642616</v>
+      </c>
+      <c r="K36" t="n">
+        <v>248.307458190149</v>
+      </c>
+      <c r="L36" t="n">
+        <v>247.0715433674769</v>
+      </c>
+      <c r="M36" t="n">
+        <v>498.9735960470953</v>
+      </c>
+      <c r="N36" t="n">
         <v>251.3862603838016</v>
       </c>
-      <c r="K36" t="n">
+      <c r="O36" t="n">
         <v>220.4251333835639</v>
       </c>
-      <c r="L36" t="n">
+      <c r="P36" t="n">
+        <v>290.7258809665693</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>238.8129948265398</v>
+      </c>
+      <c r="R36" t="n">
         <v>374.2153408424728</v>
       </c>
-      <c r="M36" t="n">
+      <c r="S36" t="n">
         <v>259.1491661716608</v>
       </c>
-      <c r="N36" t="n">
+      <c r="T36" t="n">
         <v>348.2969594584519</v>
       </c>
-      <c r="O36" t="n">
+      <c r="U36" t="n">
         <v>243.1004651492377</v>
       </c>
-      <c r="P36" t="n">
+      <c r="V36" t="n">
         <v>265.4842700526517</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="W36" t="n">
         <v>265.4808734080152</v>
       </c>
-      <c r="R36" t="n">
+      <c r="X36" t="n">
         <v>289.056090226002</v>
       </c>
-      <c r="S36" t="n">
+      <c r="Y36" t="n">
         <v>397.4122196102043</v>
       </c>
-      <c r="T36" t="n">
+      <c r="Z36" t="n">
         <v>413.6500664668268</v>
       </c>
-      <c r="U36" t="n">
+      <c r="AA36" t="n">
         <v>417.4965685715214</v>
       </c>
-      <c r="V36" t="n">
+      <c r="AB36" t="n">
+        <v>413.1066820487957</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>257.0599618823658</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>255.5200231649094</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>501.7783294254937</v>
+      </c>
+      <c r="AF36" t="n">
         <v>259.8597290336422</v>
       </c>
-      <c r="W36" t="n">
+      <c r="AG36" t="n">
         <v>227.568136061122</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AH36" t="n">
+        <v>297.9676811313928</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>244.7969713680748</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>380.7943861847986</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AK36" t="n">
         <v>267.1667301074091</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AL36" t="n">
         <v>353.1801835716878</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AM36" t="n">
         <v>250.267217517661</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AN36" t="n">
         <v>273.5587550654537</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AO36" t="n">
         <v>273.6118832335651</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AP36" t="n">
         <v>301.3195966592406</v>
       </c>
     </row>
@@ -3829,66 +5149,102 @@
         <v>110.9381843268466</v>
       </c>
       <c r="J37" t="n">
+        <v>119.4010104738103</v>
+      </c>
+      <c r="K37" t="n">
+        <v>74.39206459878702</v>
+      </c>
+      <c r="L37" t="n">
+        <v>74.43329025028751</v>
+      </c>
+      <c r="M37" t="n">
+        <v>496.4473611106047</v>
+      </c>
+      <c r="N37" t="n">
         <v>76.14337682208341</v>
       </c>
-      <c r="K37" t="n">
+      <c r="O37" t="n">
         <v>63.17104781865268</v>
       </c>
-      <c r="L37" t="n">
+      <c r="P37" t="n">
+        <v>95.82344042866478</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>75.88904873736695</v>
+      </c>
+      <c r="R37" t="n">
         <v>99.84237570185391</v>
       </c>
-      <c r="M37" t="n">
+      <c r="S37" t="n">
         <v>78.02182258885288</v>
       </c>
-      <c r="N37" t="n">
+      <c r="T37" t="n">
         <v>111.0088605446362</v>
       </c>
-      <c r="O37" t="n">
+      <c r="U37" t="n">
         <v>70.68418843835398</v>
       </c>
-      <c r="P37" t="n">
+      <c r="V37" t="n">
         <v>80.05930385945976</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="W37" t="n">
         <v>80.05962094474994</v>
       </c>
-      <c r="R37" t="n">
+      <c r="X37" t="n">
         <v>86.35120111717269</v>
       </c>
-      <c r="S37" t="n">
+      <c r="Y37" t="n">
         <v>108.1370742885975</v>
       </c>
-      <c r="T37" t="n">
+      <c r="Z37" t="n">
         <v>112.3930611829868</v>
       </c>
-      <c r="U37" t="n">
+      <c r="AA37" t="n">
         <v>113.0087047169423</v>
       </c>
-      <c r="V37" t="n">
+      <c r="AB37" t="n">
+        <v>121.6392574487353</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>76.85272873429075</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>76.77898866725923</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>497.0156076766447</v>
+      </c>
+      <c r="AF37" t="n">
         <v>78.48128546395839</v>
       </c>
-      <c r="W37" t="n">
+      <c r="AG37" t="n">
         <v>65.09124256557051</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AH37" t="n">
+        <v>98.16749320464397</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>77.56759099935395</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>101.6631248623959</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AK37" t="n">
         <v>80.29414303824231</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AL37" t="n">
         <v>111.937180908572</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AM37" t="n">
         <v>72.62834496283014</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AN37" t="n">
         <v>82.35502998851203</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AO37" t="n">
         <v>82.35728489528591</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AP37" t="n">
         <v>91.11505300574153</v>
       </c>
     </row>
@@ -3921,66 +5277,102 @@
         <v>231.2981357973424</v>
       </c>
       <c r="J38" t="n">
+        <v>243.3268392066951</v>
+      </c>
+      <c r="K38" t="n">
+        <v>141.8175693182995</v>
+      </c>
+      <c r="L38" t="n">
+        <v>148.9244242689091</v>
+      </c>
+      <c r="M38" t="n">
+        <v>500.6701200317022</v>
+      </c>
+      <c r="N38" t="n">
         <v>152.5707388511222</v>
       </c>
-      <c r="K38" t="n">
+      <c r="O38" t="n">
         <v>119.4253281619757</v>
       </c>
-      <c r="L38" t="n">
+      <c r="P38" t="n">
+        <v>195.0606385173023</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>154.8838086749156</v>
+      </c>
+      <c r="R38" t="n">
         <v>210.6117327757994</v>
       </c>
-      <c r="M38" t="n">
+      <c r="S38" t="n">
         <v>153.5737285539585</v>
       </c>
-      <c r="N38" t="n">
+      <c r="T38" t="n">
         <v>234.8013733039996</v>
       </c>
-      <c r="O38" t="n">
+      <c r="U38" t="n">
         <v>136.2686039226951</v>
       </c>
-      <c r="P38" t="n">
+      <c r="V38" t="n">
         <v>156.6162380955998</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="W38" t="n">
         <v>156.6154307605765</v>
       </c>
-      <c r="R38" t="n">
+      <c r="X38" t="n">
         <v>165.0864410202835</v>
       </c>
-      <c r="S38" t="n">
+      <c r="Y38" t="n">
         <v>224.9096268757615</v>
       </c>
-      <c r="T38" t="n">
+      <c r="Z38" t="n">
         <v>230.9926864629569</v>
       </c>
-      <c r="U38" t="n">
+      <c r="AA38" t="n">
         <v>233.3514772946703</v>
       </c>
-      <c r="V38" t="n">
+      <c r="AB38" t="n">
+        <v>245.5342599219572</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>144.2164625959332</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>151.220672706815</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>503.1387267044983</v>
+      </c>
+      <c r="AF38" t="n">
         <v>154.870672434362</v>
       </c>
-      <c r="W38" t="n">
+      <c r="AG38" t="n">
         <v>121.3510937227034</v>
       </c>
-      <c r="X38" t="n">
+      <c r="AH38" t="n">
+        <v>197.422610578019</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>156.5665776395262</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>212.4455847935665</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="AK38" t="n">
         <v>155.8137628222795</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AL38" t="n">
         <v>235.6571791499919</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AM38" t="n">
         <v>138.2120799275507</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AN38" t="n">
         <v>158.8915726734531</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AO38" t="n">
         <v>158.8946639993662</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AP38" t="n">
         <v>171.9785031573453</v>
       </c>
     </row>
@@ -4013,66 +5405,102 @@
         <v>126.3382843434777</v>
       </c>
       <c r="J39" t="n">
+        <v>136.465037056842</v>
+      </c>
+      <c r="K39" t="n">
+        <v>82.82526964785271</v>
+      </c>
+      <c r="L39" t="n">
+        <v>84.28524785938087</v>
+      </c>
+      <c r="M39" t="n">
+        <v>499.594007059186</v>
+      </c>
+      <c r="N39" t="n">
         <v>86.34316773576066</v>
       </c>
-      <c r="K39" t="n">
+      <c r="O39" t="n">
         <v>69.7090315982297</v>
       </c>
-      <c r="L39" t="n">
+      <c r="P39" t="n">
+        <v>110.4382861692098</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>87.39928796128375</v>
+      </c>
+      <c r="R39" t="n">
         <v>113.9962360403208</v>
       </c>
-      <c r="M39" t="n">
+      <c r="S39" t="n">
         <v>87.87870458862547</v>
       </c>
-      <c r="N39" t="n">
+      <c r="T39" t="n">
         <v>129.9099910072169</v>
       </c>
-      <c r="O39" t="n">
+      <c r="U39" t="n">
         <v>78.70918559688207</v>
       </c>
-      <c r="P39" t="n">
+      <c r="V39" t="n">
         <v>89.98909206081609</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="W39" t="n">
         <v>89.98880549245821</v>
       </c>
-      <c r="R39" t="n">
+      <c r="X39" t="n">
         <v>96.11764306119842</v>
       </c>
-      <c r="S39" t="n">
+      <c r="Y39" t="n">
         <v>122.9390461816505</v>
       </c>
-      <c r="T39" t="n">
+      <c r="Z39" t="n">
         <v>127.2675502109325</v>
       </c>
-      <c r="U39" t="n">
+      <c r="AA39" t="n">
         <v>128.1236641823316</v>
       </c>
-      <c r="V39" t="n">
+      <c r="AB39" t="n">
+        <v>138.4023022330364</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>84.95407761126275</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>86.31097914717591</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>500.0379588108178</v>
+      </c>
+      <c r="AF39" t="n">
         <v>88.37145379593531</v>
       </c>
-      <c r="W39" t="n">
+      <c r="AG39" t="n">
         <v>71.37009494666941</v>
       </c>
-      <c r="X39" t="n">
+      <c r="AH39" t="n">
+        <v>112.5273982662904</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>88.8515586104425</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>115.5765937152105</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AK39" t="n">
         <v>89.85788788956404</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AL39" t="n">
         <v>130.6272561557782</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AM39" t="n">
         <v>80.37797488525032</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AN39" t="n">
         <v>91.97692809736471</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AO39" t="n">
         <v>91.99712897820292</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AP39" t="n">
         <v>101.1442205338863</v>
       </c>
     </row>
@@ -4105,66 +5533,102 @@
         <v>498.4957295019001</v>
       </c>
       <c r="J40" t="n">
+        <v>500.518801210583</v>
+      </c>
+      <c r="K40" t="n">
+        <v>500.0010515980938</v>
+      </c>
+      <c r="L40" t="n">
+        <v>500.069990418547</v>
+      </c>
+      <c r="M40" t="n">
+        <v>508.5384382492921</v>
+      </c>
+      <c r="N40" t="n">
         <v>499.8871723833828</v>
       </c>
-      <c r="K40" t="n">
+      <c r="O40" t="n">
         <v>449.3614807067809</v>
       </c>
-      <c r="L40" t="n">
+      <c r="P40" t="n">
+        <v>501.1069965424337</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>500.6830866082974</v>
+      </c>
+      <c r="R40" t="n">
         <v>497.1424273307633</v>
       </c>
-      <c r="M40" t="n">
+      <c r="S40" t="n">
         <v>500.0787737477904</v>
       </c>
-      <c r="N40" t="n">
+      <c r="T40" t="n">
         <v>499.730479289905</v>
       </c>
-      <c r="O40" t="n">
+      <c r="U40" t="n">
         <v>500.1123667138032</v>
       </c>
-      <c r="P40" t="n">
+      <c r="V40" t="n">
         <v>499.9095610133973</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="W40" t="n">
         <v>499.2971240936448</v>
       </c>
-      <c r="R40" t="n">
+      <c r="X40" t="n">
         <v>500.1633032776381</v>
       </c>
-      <c r="S40" t="n">
+      <c r="Y40" t="n">
         <v>500.2780862046859</v>
       </c>
-      <c r="T40" t="n">
+      <c r="Z40" t="n">
         <v>500.2209763011618</v>
       </c>
-      <c r="U40" t="n">
+      <c r="AA40" t="n">
         <v>500.2802567663613</v>
       </c>
-      <c r="V40" t="n">
+      <c r="AB40" t="n">
+        <v>501.2249199960359</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>500.0415906471193</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>500.4765667108046</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>517.4805076660344</v>
+      </c>
+      <c r="AF40" t="n">
         <v>500.2985499845101</v>
       </c>
-      <c r="W40" t="n">
+      <c r="AG40" t="n">
         <v>451.8475228196367</v>
       </c>
-      <c r="X40" t="n">
+      <c r="AH40" t="n">
+        <v>502.5672820786775</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>501.7201781066124</v>
+      </c>
+      <c r="AJ40" t="n">
         <v>500.0786156495509</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AK40" t="n">
         <v>500.352667945914</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AL40" t="n">
         <v>500.8461402104189</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AM40" t="n">
         <v>500.3030909737792</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AN40" t="n">
         <v>500.2949129236483</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AO40" t="n">
         <v>500.0138101027085</v>
       </c>
-      <c r="AD40" t="n">
+      <c r="AP40" t="n">
         <v>500.3420488069363</v>
       </c>
     </row>
@@ -4197,66 +5661,102 @@
         <v>98.19236636852051</v>
       </c>
       <c r="J41" t="n">
+        <v>107.0912237923258</v>
+      </c>
+      <c r="K41" t="n">
+        <v>65.8991379010322</v>
+      </c>
+      <c r="L41" t="n">
+        <v>66.5241626888409</v>
+      </c>
+      <c r="M41" t="n">
+        <v>474.4081394045913</v>
+      </c>
+      <c r="N41" t="n">
         <v>68.16810839184265</v>
       </c>
-      <c r="K41" t="n">
+      <c r="O41" t="n">
         <v>55.41881503735249</v>
       </c>
-      <c r="L41" t="n">
+      <c r="P41" t="n">
+        <v>87.3810501902845</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>69.15051164184649</v>
+      </c>
+      <c r="R41" t="n">
         <v>88.26388150023838</v>
       </c>
-      <c r="M41" t="n">
+      <c r="S41" t="n">
         <v>69.57762468259986</v>
       </c>
-      <c r="N41" t="n">
+      <c r="T41" t="n">
         <v>102.1072979747804</v>
       </c>
-      <c r="O41" t="n">
+      <c r="U41" t="n">
         <v>62.42575363048393</v>
       </c>
-      <c r="P41" t="n">
+      <c r="V41" t="n">
         <v>71.35757088546832</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="W41" t="n">
         <v>71.36013259719219</v>
       </c>
-      <c r="R41" t="n">
+      <c r="X41" t="n">
         <v>76.45573071878532</v>
       </c>
-      <c r="S41" t="n">
+      <c r="Y41" t="n">
         <v>95.69287968968536</v>
       </c>
-      <c r="T41" t="n">
+      <c r="Z41" t="n">
         <v>99.25483196844357</v>
       </c>
-      <c r="U41" t="n">
+      <c r="AA41" t="n">
         <v>99.79541565967411</v>
       </c>
-      <c r="V41" t="n">
+      <c r="AB41" t="n">
+        <v>108.826735561065</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>67.81996450040771</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>68.34886959018783</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>474.8283763117424</v>
+      </c>
+      <c r="AF41" t="n">
         <v>69.99450635400905</v>
       </c>
-      <c r="W41" t="n">
+      <c r="AG41" t="n">
         <v>56.89840853869522</v>
       </c>
-      <c r="X41" t="n">
+      <c r="AH41" t="n">
+        <v>89.27600735474989</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>70.47355440891808</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>89.67353215830224</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="AK41" t="n">
         <v>71.34965436850341</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AL41" t="n">
         <v>102.7277455336857</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AM41" t="n">
         <v>63.91529843910844</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AN41" t="n">
         <v>73.15183241142617</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AO41" t="n">
         <v>73.16647247850499</v>
       </c>
-      <c r="AD41" t="n">
+      <c r="AP41" t="n">
         <v>80.90515841870867</v>
       </c>
     </row>
@@ -4289,66 +5789,102 @@
         <v>58.04315459373908</v>
       </c>
       <c r="J42" t="n">
+        <v>63.91812821155367</v>
+      </c>
+      <c r="K42" t="n">
+        <v>41.05308227265888</v>
+      </c>
+      <c r="L42" t="n">
+        <v>40.59269495131802</v>
+      </c>
+      <c r="M42" t="n">
+        <v>281.3413620110141</v>
+      </c>
+      <c r="N42" t="n">
         <v>41.59125422152945</v>
       </c>
-      <c r="K42" t="n">
+      <c r="O42" t="n">
         <v>34.70663463560607</v>
       </c>
-      <c r="L42" t="n">
+      <c r="P42" t="n">
+        <v>52.86393492896355</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>41.86446658313199</v>
+      </c>
+      <c r="R42" t="n">
         <v>51.76680476264637</v>
       </c>
-      <c r="M42" t="n">
+      <c r="S42" t="n">
         <v>42.7761355146115</v>
       </c>
-      <c r="N42" t="n">
+      <c r="T42" t="n">
         <v>60.40777298732822</v>
       </c>
-      <c r="O42" t="n">
+      <c r="U42" t="n">
         <v>38.73966721920141</v>
       </c>
-      <c r="P42" t="n">
+      <c r="V42" t="n">
         <v>44.02588518062908</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="W42" t="n">
         <v>44.02615445146792</v>
       </c>
-      <c r="R42" t="n">
+      <c r="X42" t="n">
         <v>47.64733750643922</v>
       </c>
-      <c r="S42" t="n">
+      <c r="Y42" t="n">
         <v>56.92029762631024</v>
       </c>
-      <c r="T42" t="n">
+      <c r="Z42" t="n">
         <v>59.29554417294545</v>
       </c>
-      <c r="U42" t="n">
+      <c r="AA42" t="n">
         <v>59.42763318545054</v>
       </c>
-      <c r="V42" t="n">
+      <c r="AB42" t="n">
+        <v>65.42887881639449</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>42.75193927643553</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>42.19730074832529</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>281.7086784906626</v>
+      </c>
+      <c r="AF42" t="n">
         <v>43.18937006299578</v>
       </c>
-      <c r="W42" t="n">
+      <c r="AG42" t="n">
         <v>35.97722256208297</v>
       </c>
-      <c r="X42" t="n">
+      <c r="AH42" t="n">
+        <v>54.53239903703569</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>43.00459064634888</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>52.97453932615322</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AK42" t="n">
         <v>44.32297342040845</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AL42" t="n">
         <v>60.93452667988121</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AM42" t="n">
         <v>40.01806733970818</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AN42" t="n">
         <v>45.59830481033648</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AO42" t="n">
         <v>45.60350928588507</v>
       </c>
-      <c r="AD42" t="n">
+      <c r="AP42" t="n">
         <v>51.06175067792399</v>
       </c>
     </row>
@@ -4381,66 +5917,102 @@
         <v>24.51187351366432</v>
       </c>
       <c r="J43" t="n">
+        <v>26.95842376056255</v>
+      </c>
+      <c r="K43" t="n">
+        <v>18.81511065855733</v>
+      </c>
+      <c r="L43" t="n">
+        <v>18.15950300269115</v>
+      </c>
+      <c r="M43" t="n">
+        <v>121.6904027304905</v>
+      </c>
+      <c r="N43" t="n">
         <v>18.59567434461232</v>
       </c>
-      <c r="K43" t="n">
+      <c r="O43" t="n">
         <v>16.09477890721583</v>
       </c>
-      <c r="L43" t="n">
+      <c r="P43" t="n">
+        <v>22.94362035457237</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>18.30154475273295</v>
+      </c>
+      <c r="R43" t="n">
         <v>21.63031750820835</v>
       </c>
-      <c r="M43" t="n">
+      <c r="S43" t="n">
         <v>19.30691501784324</v>
       </c>
-      <c r="N43" t="n">
+      <c r="T43" t="n">
         <v>25.23754957254531</v>
       </c>
-      <c r="O43" t="n">
+      <c r="U43" t="n">
         <v>17.70660737219314</v>
       </c>
-      <c r="P43" t="n">
+      <c r="V43" t="n">
         <v>19.95217450462313</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="W43" t="n">
         <v>19.95218107346043</v>
       </c>
-      <c r="R43" t="n">
+      <c r="X43" t="n">
         <v>21.90588040369045</v>
       </c>
-      <c r="S43" t="n">
+      <c r="Y43" t="n">
         <v>24.55638008307281</v>
       </c>
-      <c r="T43" t="n">
+      <c r="Z43" t="n">
         <v>25.64491101434747</v>
       </c>
-      <c r="U43" t="n">
+      <c r="AA43" t="n">
         <v>25.58344201420338</v>
       </c>
-      <c r="V43" t="n">
+      <c r="AB43" t="n">
+        <v>28.13687213984043</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>20.1602064887973</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>19.43799773357915</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>121.9856470383833</v>
+      </c>
+      <c r="AF43" t="n">
         <v>19.86415203526434</v>
       </c>
-      <c r="W43" t="n">
+      <c r="AG43" t="n">
         <v>17.0589826836143</v>
       </c>
-      <c r="X43" t="n">
+      <c r="AH43" t="n">
+        <v>24.2737547591728</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>19.19332427594738</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>22.53965694241839</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="AK43" t="n">
         <v>20.5293773256929</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AL43" t="n">
         <v>25.63366758077135</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AM43" t="n">
         <v>18.67245982594449</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AN43" t="n">
         <v>21.1845221184226</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AO43" t="n">
         <v>21.19447479402326</v>
       </c>
-      <c r="AD43" t="n">
+      <c r="AP43" t="n">
         <v>24.13968979700503</v>
       </c>
     </row>
@@ -4473,66 +6045,102 @@
         <v>268.8228084920592</v>
       </c>
       <c r="J44" t="n">
+        <v>283.7417877977132</v>
+      </c>
+      <c r="K44" t="n">
+        <v>152.4271198373551</v>
+      </c>
+      <c r="L44" t="n">
+        <v>172.1372209943329</v>
+      </c>
+      <c r="M44" t="n">
+        <v>500.8423370504088</v>
+      </c>
+      <c r="N44" t="n">
         <v>177.082697787928</v>
       </c>
-      <c r="K44" t="n">
+      <c r="O44" t="n">
         <v>126.7700355328537</v>
       </c>
-      <c r="L44" t="n">
+      <c r="P44" t="n">
+        <v>234.9983097601393</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>194.0883790579317</v>
+      </c>
+      <c r="R44" t="n">
         <v>244.6593923698343</v>
       </c>
-      <c r="M44" t="n">
+      <c r="S44" t="n">
         <v>173.9115772944556</v>
       </c>
-      <c r="N44" t="n">
+      <c r="T44" t="n">
         <v>300.5725843549552</v>
       </c>
-      <c r="O44" t="n">
+      <c r="U44" t="n">
         <v>148.7842872501172</v>
       </c>
-      <c r="P44" t="n">
+      <c r="V44" t="n">
         <v>177.6090771916525</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="W44" t="n">
         <v>177.6084720153243</v>
       </c>
-      <c r="R44" t="n">
+      <c r="X44" t="n">
         <v>182.007691889275</v>
       </c>
-      <c r="S44" t="n">
+      <c r="Y44" t="n">
         <v>264.0605960468551</v>
       </c>
-      <c r="T44" t="n">
+      <c r="Z44" t="n">
         <v>266.4406568757195</v>
       </c>
-      <c r="U44" t="n">
+      <c r="AA44" t="n">
         <v>270.1672408481965</v>
       </c>
-      <c r="V44" t="n">
+      <c r="AB44" t="n">
+        <v>285.1222510340787</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>153.983706689983</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>173.6316442947005</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>505.3509769622097</v>
+      </c>
+      <c r="AF44" t="n">
         <v>178.5703929464707</v>
       </c>
-      <c r="W44" t="n">
+      <c r="AG44" t="n">
         <v>128.142962099163</v>
       </c>
-      <c r="X44" t="n">
+      <c r="AH44" t="n">
+        <v>236.5930986610535</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>195.2590471313423</v>
+      </c>
+      <c r="AJ44" t="n">
         <v>245.8840605178822</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="AK44" t="n">
         <v>175.4588413580718</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AL44" t="n">
         <v>301.0714522712523</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AM44" t="n">
         <v>150.1571554749492</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AN44" t="n">
         <v>179.1729649103885</v>
       </c>
-      <c r="AC44" t="n">
+      <c r="AO44" t="n">
         <v>179.1681712505057</v>
       </c>
-      <c r="AD44" t="n">
+      <c r="AP44" t="n">
         <v>182.695523357032</v>
       </c>
     </row>
@@ -4565,66 +6173,102 @@
         <v>122.2220101138667</v>
       </c>
       <c r="J45" t="n">
+        <v>135.2596501011595</v>
+      </c>
+      <c r="K45" t="n">
+        <v>76.5334506060294</v>
+      </c>
+      <c r="L45" t="n">
+        <v>82.18139473722253</v>
+      </c>
+      <c r="M45" t="n">
+        <v>499.1536599416066</v>
+      </c>
+      <c r="N45" t="n">
         <v>84.60827070403884</v>
       </c>
-      <c r="K45" t="n">
+      <c r="O45" t="n">
         <v>62.9986662927427</v>
       </c>
-      <c r="L45" t="n">
+      <c r="P45" t="n">
+        <v>113.1503824327873</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>92.2293271060778</v>
+      </c>
+      <c r="R45" t="n">
         <v>110.1639319593986</v>
       </c>
-      <c r="M45" t="n">
+      <c r="S45" t="n">
         <v>84.56960954241093</v>
       </c>
-      <c r="N45" t="n">
+      <c r="T45" t="n">
         <v>140.9577753870297</v>
       </c>
-      <c r="O45" t="n">
+      <c r="U45" t="n">
         <v>72.98571722894216</v>
       </c>
-      <c r="P45" t="n">
+      <c r="V45" t="n">
         <v>86.61308263786715</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="W45" t="n">
         <v>86.61275991608527</v>
       </c>
-      <c r="R45" t="n">
+      <c r="X45" t="n">
         <v>90.11741965114466</v>
       </c>
-      <c r="S45" t="n">
+      <c r="Y45" t="n">
         <v>119.3532861799018</v>
       </c>
-      <c r="T45" t="n">
+      <c r="Z45" t="n">
         <v>122.1331658573074</v>
       </c>
-      <c r="U45" t="n">
+      <c r="AA45" t="n">
         <v>123.2781195223548</v>
       </c>
-      <c r="V45" t="n">
+      <c r="AB45" t="n">
+        <v>136.3753057316603</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>77.79429495755329</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>83.35675831220777</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>500.081170475137</v>
+      </c>
+      <c r="AF45" t="n">
         <v>85.79715925786887</v>
       </c>
-      <c r="W45" t="n">
+      <c r="AG45" t="n">
         <v>64.01483390029054</v>
       </c>
-      <c r="X45" t="n">
+      <c r="AH45" t="n">
+        <v>114.4532983212759</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>93.16017955130741</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>111.1038889176814</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="AK45" t="n">
         <v>85.79681592654211</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AL45" t="n">
         <v>141.3445593291925</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AM45" t="n">
         <v>74.00615524195193</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AN45" t="n">
         <v>87.85144435868699</v>
       </c>
-      <c r="AC45" t="n">
+      <c r="AO45" t="n">
         <v>87.85128415898002</v>
       </c>
-      <c r="AD45" t="n">
+      <c r="AP45" t="n">
         <v>90.63907050450429</v>
       </c>
     </row>
@@ -4657,66 +6301,102 @@
         <v>141.0943469117301</v>
       </c>
       <c r="J46" t="n">
+        <v>155.8589479625064</v>
+      </c>
+      <c r="K46" t="n">
+        <v>85.16439666446686</v>
+      </c>
+      <c r="L46" t="n">
+        <v>94.13918114888186</v>
+      </c>
+      <c r="M46" t="n">
+        <v>501.538190379016</v>
+      </c>
+      <c r="N46" t="n">
         <v>97.0473014112079</v>
       </c>
-      <c r="K46" t="n">
+      <c r="O46" t="n">
         <v>69.91486509661806</v>
       </c>
-      <c r="L46" t="n">
+      <c r="P46" t="n">
+        <v>131.2447746888279</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>109.0047520099849</v>
+      </c>
+      <c r="R46" t="n">
         <v>127.2818702233935</v>
       </c>
-      <c r="M46" t="n">
+      <c r="S46" t="n">
         <v>96.09938141688423</v>
       </c>
-      <c r="N46" t="n">
+      <c r="T46" t="n">
         <v>167.5119238746345</v>
       </c>
-      <c r="O46" t="n">
+      <c r="U46" t="n">
         <v>81.82262581402443</v>
       </c>
-      <c r="P46" t="n">
+      <c r="V46" t="n">
         <v>98.40938324226208</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="W46" t="n">
         <v>98.40999867618795</v>
       </c>
-      <c r="R46" t="n">
+      <c r="X46" t="n">
         <v>101.3936196334609</v>
       </c>
-      <c r="S46" t="n">
+      <c r="Y46" t="n">
         <v>138.2344553403954</v>
       </c>
-      <c r="T46" t="n">
+      <c r="Z46" t="n">
         <v>140.5196496971244</v>
       </c>
-      <c r="U46" t="n">
+      <c r="AA46" t="n">
         <v>142.0894000857066</v>
       </c>
-      <c r="V46" t="n">
+      <c r="AB46" t="n">
+        <v>156.879206324029</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>86.33827957524625</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>95.2573376257741</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>503.4452441511302</v>
+      </c>
+      <c r="AF46" t="n">
         <v>98.16142796370386</v>
       </c>
-      <c r="W46" t="n">
+      <c r="AG46" t="n">
         <v>70.94540328432845</v>
       </c>
-      <c r="X46" t="n">
+      <c r="AH46" t="n">
+        <v>132.4546024974569</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>109.902059797821</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>128.1787733368863</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="AK46" t="n">
         <v>97.28710607232574</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AL46" t="n">
         <v>167.8769659484031</v>
       </c>
-      <c r="AA46" t="n">
+      <c r="AM46" t="n">
         <v>82.85789094581904</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AN46" t="n">
         <v>99.59911327647013</v>
       </c>
-      <c r="AC46" t="n">
+      <c r="AO46" t="n">
         <v>99.60229219006315</v>
       </c>
-      <c r="AD46" t="n">
+      <c r="AP46" t="n">
         <v>101.9207885094129</v>
       </c>
     </row>
@@ -4749,66 +6429,102 @@
         <v>306.9173956424412</v>
       </c>
       <c r="J47" t="n">
+        <v>324.4469114356062</v>
+      </c>
+      <c r="K47" t="n">
+        <v>162.270394351652</v>
+      </c>
+      <c r="L47" t="n">
+        <v>196.3785826125576</v>
+      </c>
+      <c r="M47" t="n">
+        <v>494.5551866363257</v>
+      </c>
+      <c r="N47" t="n">
         <v>202.7349013523101</v>
       </c>
-      <c r="K47" t="n">
+      <c r="O47" t="n">
         <v>134.7375651277831</v>
       </c>
-      <c r="L47" t="n">
+      <c r="P47" t="n">
+        <v>276.1718518197965</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>242.2996694068616</v>
+      </c>
+      <c r="R47" t="n">
         <v>277.8755418445305</v>
       </c>
-      <c r="M47" t="n">
+      <c r="S47" t="n">
         <v>193.1321902067872</v>
       </c>
-      <c r="N47" t="n">
+      <c r="T47" t="n">
         <v>373.4374448826911</v>
       </c>
-      <c r="O47" t="n">
+      <c r="U47" t="n">
         <v>161.7788084702324</v>
       </c>
-      <c r="P47" t="n">
+      <c r="V47" t="n">
         <v>197.3438214073758</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="W47" t="n">
         <v>197.3443080457785</v>
       </c>
-      <c r="R47" t="n">
+      <c r="X47" t="n">
         <v>198.8211902040716</v>
       </c>
-      <c r="S47" t="n">
+      <c r="Y47" t="n">
         <v>305.8993794723577</v>
       </c>
-      <c r="T47" t="n">
+      <c r="Z47" t="n">
         <v>302.7347653072385</v>
       </c>
-      <c r="U47" t="n">
+      <c r="AA47" t="n">
         <v>308.0418223170464</v>
       </c>
-      <c r="V47" t="n">
+      <c r="AB47" t="n">
+        <v>325.5092454013262</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>163.5226520261385</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>197.6334917261876</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>500.3240920427987</v>
+      </c>
+      <c r="AF47" t="n">
         <v>203.9997454597087</v>
       </c>
-      <c r="W47" t="n">
+      <c r="AG47" t="n">
         <v>136.1951290907022</v>
       </c>
-      <c r="X47" t="n">
+      <c r="AH47" t="n">
+        <v>277.4096119022645</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>243.3323078422102</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>278.9277951603527</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="AK47" t="n">
         <v>194.5367773717083</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AL47" t="n">
         <v>373.8935490471745</v>
       </c>
-      <c r="AA47" t="n">
+      <c r="AM47" t="n">
         <v>163.2207399375086</v>
       </c>
-      <c r="AB47" t="n">
+      <c r="AN47" t="n">
         <v>198.7430857105218</v>
       </c>
-      <c r="AC47" t="n">
+      <c r="AO47" t="n">
         <v>198.734006499748</v>
       </c>
-      <c r="AD47" t="n">
+      <c r="AP47" t="n">
         <v>508.0107266278098</v>
       </c>
     </row>
@@ -4841,66 +6557,102 @@
         <v>307.1910300484974</v>
       </c>
       <c r="J48" t="n">
+        <v>326.103537992779</v>
+      </c>
+      <c r="K48" t="n">
+        <v>161.5871675664966</v>
+      </c>
+      <c r="L48" t="n">
+        <v>197.865911653208</v>
+      </c>
+      <c r="M48" t="n">
+        <v>507.6542589736323</v>
+      </c>
+      <c r="N48" t="n">
         <v>204.4471834567283</v>
       </c>
-      <c r="K48" t="n">
+      <c r="O48" t="n">
         <v>133.7829839625516</v>
       </c>
-      <c r="L48" t="n">
+      <c r="P48" t="n">
+        <v>279.7059118371839</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>249.4635862500446</v>
+      </c>
+      <c r="R48" t="n">
         <v>277.6823461576379</v>
       </c>
-      <c r="M48" t="n">
+      <c r="S48" t="n">
         <v>192.9143918124118</v>
       </c>
-      <c r="N48" t="n">
+      <c r="T48" t="n">
         <v>383.179504627247</v>
       </c>
-      <c r="O48" t="n">
+      <c r="U48" t="n">
         <v>161.3290199227265</v>
       </c>
-      <c r="P48" t="n">
+      <c r="V48" t="n">
         <v>197.0330461360757</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="W48" t="n">
         <v>197.0342314819859</v>
       </c>
-      <c r="R48" t="n">
+      <c r="X48" t="n">
         <v>198.116621036596</v>
       </c>
-      <c r="S48" t="n">
+      <c r="Y48" t="n">
         <v>307.4664863580955</v>
       </c>
-      <c r="T48" t="n">
+      <c r="Z48" t="n">
         <v>302.7484995059713</v>
       </c>
-      <c r="U48" t="n">
+      <c r="AA48" t="n">
         <v>308.2861640747821</v>
       </c>
-      <c r="V48" t="n">
+      <c r="AB48" t="n">
+        <v>327.1054690866787</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>162.803505084</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>199.1053008278462</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>516.2201491138687</v>
+      </c>
+      <c r="AF48" t="n">
         <v>205.6845236473604</v>
       </c>
-      <c r="W48" t="n">
+      <c r="AG48" t="n">
         <v>135.3026250021616</v>
       </c>
-      <c r="X48" t="n">
+      <c r="AH48" t="n">
+        <v>280.8750499939886</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>250.473539473737</v>
+      </c>
+      <c r="AJ48" t="n">
         <v>278.7066844066733</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="AK48" t="n">
         <v>194.3053875499762</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AL48" t="n">
         <v>384.2836831675391</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AM48" t="n">
         <v>162.8172894589931</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AN48" t="n">
         <v>198.4084983785386</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AO48" t="n">
         <v>198.4157450180857</v>
       </c>
-      <c r="AD48" t="n">
+      <c r="AP48" t="n">
         <v>503.0612342717224</v>
       </c>
     </row>
@@ -4933,66 +6685,102 @@
         <v>40.3774636659998</v>
       </c>
       <c r="J49" t="n">
+        <v>47.9733860688342</v>
+      </c>
+      <c r="K49" t="n">
+        <v>27.5660734534251</v>
+      </c>
+      <c r="L49" t="n">
+        <v>29.11007475185807</v>
+      </c>
+      <c r="M49" t="n">
+        <v>326.2894788970518</v>
+      </c>
+      <c r="N49" t="n">
         <v>30.15649905577949</v>
       </c>
-      <c r="K49" t="n">
+      <c r="O49" t="n">
         <v>22.44680845139987</v>
       </c>
-      <c r="L49" t="n">
+      <c r="P49" t="n">
+        <v>41.80627855159074</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>35.31467626161741</v>
+      </c>
+      <c r="R49" t="n">
         <v>35.92788705740246</v>
       </c>
-      <c r="M49" t="n">
+      <c r="S49" t="n">
         <v>30.35304830658345</v>
       </c>
-      <c r="N49" t="n">
+      <c r="T49" t="n">
         <v>52.86475661756906</v>
       </c>
-      <c r="O49" t="n">
+      <c r="U49" t="n">
         <v>26.02728124413411</v>
       </c>
-      <c r="P49" t="n">
+      <c r="V49" t="n">
         <v>31.20822795531848</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="W49" t="n">
         <v>31.20809527577668</v>
       </c>
-      <c r="R49" t="n">
+      <c r="X49" t="n">
         <v>32.47057913082145</v>
       </c>
-      <c r="S49" t="n">
+      <c r="Y49" t="n">
         <v>39.7132614154193</v>
       </c>
-      <c r="T49" t="n">
+      <c r="Z49" t="n">
         <v>40.74107365956642</v>
       </c>
-      <c r="U49" t="n">
+      <c r="AA49" t="n">
         <v>40.92291176371364</v>
       </c>
-      <c r="V49" t="n">
+      <c r="AB49" t="n">
+        <v>48.52954086780517</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>28.2457204452061</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>29.75971813504736</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>326.4633468787661</v>
+      </c>
+      <c r="AF49" t="n">
         <v>30.80708754584395</v>
       </c>
-      <c r="W49" t="n">
+      <c r="AG49" t="n">
         <v>23.09068326929956</v>
       </c>
-      <c r="X49" t="n">
+      <c r="AH49" t="n">
+        <v>42.51411105329061</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>35.85705098222972</v>
+      </c>
+      <c r="AJ49" t="n">
         <v>36.41751436318494</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="AK49" t="n">
         <v>31.06843926564393</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AL49" t="n">
         <v>53.08042729396977</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AM49" t="n">
         <v>26.67350132389161</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AN49" t="n">
         <v>31.92432744033819</v>
       </c>
-      <c r="AC49" t="n">
+      <c r="AO49" t="n">
         <v>31.92437083556391</v>
       </c>
-      <c r="AD49" t="n">
+      <c r="AP49" t="n">
         <v>32.78041164157217</v>
       </c>
     </row>
@@ -5025,66 +6813,102 @@
         <v>102.2866363416897</v>
       </c>
       <c r="J50" t="n">
+        <v>117.5507794699366</v>
+      </c>
+      <c r="K50" t="n">
+        <v>61.44639536652592</v>
+      </c>
+      <c r="L50" t="n">
+        <v>70.32753718313914</v>
+      </c>
+      <c r="M50" t="n">
+        <v>499.8358984568372</v>
+      </c>
+      <c r="N50" t="n">
         <v>72.83504877585473</v>
       </c>
-      <c r="K50" t="n">
+      <c r="O50" t="n">
         <v>49.93323531606584</v>
       </c>
-      <c r="L50" t="n">
+      <c r="P50" t="n">
+        <v>101.908523625928</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>89.10305871984986</v>
+      </c>
+      <c r="R50" t="n">
         <v>92.04813212748851</v>
       </c>
-      <c r="M50" t="n">
+      <c r="S50" t="n">
         <v>71.21559101047099</v>
       </c>
-      <c r="N50" t="n">
+      <c r="T50" t="n">
         <v>135.6630130929719</v>
       </c>
-      <c r="O50" t="n">
+      <c r="U50" t="n">
         <v>59.25150027607467</v>
       </c>
-      <c r="P50" t="n">
+      <c r="V50" t="n">
         <v>72.98728318575959</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="W50" t="n">
         <v>72.98681672989277</v>
       </c>
-      <c r="R50" t="n">
+      <c r="X50" t="n">
         <v>74.457521217554</v>
       </c>
-      <c r="S50" t="n">
+      <c r="Y50" t="n">
         <v>101.3406192799329</v>
       </c>
-      <c r="T50" t="n">
+      <c r="Z50" t="n">
         <v>101.853087885616</v>
       </c>
-      <c r="U50" t="n">
+      <c r="AA50" t="n">
         <v>103.0306883399668</v>
       </c>
-      <c r="V50" t="n">
+      <c r="AB50" t="n">
+        <v>118.2579803676193</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>62.32108644927606</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>71.19249325038443</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>502.0029814421708</v>
+      </c>
+      <c r="AF50" t="n">
         <v>73.70331185920918</v>
       </c>
-      <c r="W50" t="n">
+      <c r="AG50" t="n">
         <v>50.97625122163952</v>
       </c>
-      <c r="X50" t="n">
+      <c r="AH50" t="n">
+        <v>102.7736337219266</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>89.82021194216267</v>
+      </c>
+      <c r="AJ50" t="n">
         <v>92.74335199760843</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="AK50" t="n">
         <v>72.19370156790788</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AL50" t="n">
         <v>135.9665879542127</v>
       </c>
-      <c r="AA50" t="n">
+      <c r="AM50" t="n">
         <v>60.28039655533029</v>
       </c>
-      <c r="AB50" t="n">
+      <c r="AN50" t="n">
         <v>73.95628055156317</v>
       </c>
-      <c r="AC50" t="n">
+      <c r="AO50" t="n">
         <v>73.95438818515943</v>
       </c>
-      <c r="AD50" t="n">
+      <c r="AP50" t="n">
         <v>504.9874859243757</v>
       </c>
     </row>
@@ -5117,66 +6941,102 @@
         <v>139.1537640916004</v>
       </c>
       <c r="J51" t="n">
+        <v>157.1117538100699</v>
+      </c>
+      <c r="K51" t="n">
+        <v>80.2205624403896</v>
+      </c>
+      <c r="L51" t="n">
+        <v>94.16540071140078</v>
+      </c>
+      <c r="M51" t="n">
+        <v>498.9114679499116</v>
+      </c>
+      <c r="N51" t="n">
         <v>97.49335888093734</v>
       </c>
-      <c r="K51" t="n">
+      <c r="O51" t="n">
         <v>65.37109440793176</v>
       </c>
-      <c r="L51" t="n">
+      <c r="P51" t="n">
+        <v>136.1448029023798</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>120.3673714974112</v>
+      </c>
+      <c r="R51" t="n">
         <v>125.4916854474519</v>
       </c>
-      <c r="M51" t="n">
+      <c r="S51" t="n">
         <v>94.21824854136568</v>
       </c>
-      <c r="N51" t="n">
+      <c r="T51" t="n">
         <v>183.6403351226911</v>
       </c>
-      <c r="O51" t="n">
+      <c r="U51" t="n">
         <v>78.0733623452832</v>
       </c>
-      <c r="P51" t="n">
+      <c r="V51" t="n">
         <v>96.44576898658751</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="W51" t="n">
         <v>96.44640112015476</v>
       </c>
-      <c r="R51" t="n">
+      <c r="X51" t="n">
         <v>97.87133068025352</v>
       </c>
-      <c r="S51" t="n">
+      <c r="Y51" t="n">
         <v>138.3959869580224</v>
       </c>
-      <c r="T51" t="n">
+      <c r="Z51" t="n">
         <v>138.0725896765481</v>
       </c>
-      <c r="U51" t="n">
+      <c r="AA51" t="n">
         <v>139.9795033109027</v>
       </c>
-      <c r="V51" t="n">
+      <c r="AB51" t="n">
+        <v>157.8767102946534</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>81.17368637268774</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>95.11613291244073</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>502.0728184431823</v>
+      </c>
+      <c r="AF51" t="n">
         <v>98.44796207936601</v>
       </c>
-      <c r="W51" t="n">
+      <c r="AG51" t="n">
         <v>66.55397310886762</v>
       </c>
-      <c r="X51" t="n">
+      <c r="AH51" t="n">
+        <v>137.0708844791518</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>121.1544546574933</v>
+      </c>
+      <c r="AJ51" t="n">
         <v>126.2621454357891</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="AK51" t="n">
         <v>95.29383614527731</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AL51" t="n">
         <v>183.9884274871535</v>
       </c>
-      <c r="AA51" t="n">
+      <c r="AM51" t="n">
         <v>79.23648487501643</v>
       </c>
-      <c r="AB51" t="n">
+      <c r="AN51" t="n">
         <v>97.51704879661267</v>
       </c>
-      <c r="AC51" t="n">
+      <c r="AO51" t="n">
         <v>97.52034017170921</v>
       </c>
-      <c r="AD51" t="n">
+      <c r="AP51" t="n">
         <v>516.0868000654347</v>
       </c>
     </row>
@@ -5209,66 +7069,102 @@
         <v>28.00473494726727</v>
       </c>
       <c r="J52" t="n">
+        <v>36.16535420337529</v>
+      </c>
+      <c r="K52" t="n">
+        <v>19.52438695402936</v>
+      </c>
+      <c r="L52" t="n">
+        <v>21.72952129519426</v>
+      </c>
+      <c r="M52" t="n">
+        <v>404.2316442069645</v>
+      </c>
+      <c r="N52" t="n">
         <v>22.7349820885347</v>
       </c>
-      <c r="K52" t="n">
+      <c r="O52" t="n">
         <v>15.38639350286943</v>
       </c>
-      <c r="L52" t="n">
+      <c r="P52" t="n">
+        <v>33.58643680789767</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>31.7669446413645</v>
+      </c>
+      <c r="R52" t="n">
         <v>25.19041811098345</v>
       </c>
-      <c r="M52" t="n">
+      <c r="S52" t="n">
         <v>22.09056751950189</v>
       </c>
-      <c r="N52" t="n">
+      <c r="T52" t="n">
         <v>46.29004449377771</v>
       </c>
-      <c r="O52" t="n">
+      <c r="U52" t="n">
         <v>18.22083736907092</v>
       </c>
-      <c r="P52" t="n">
+      <c r="V52" t="n">
         <v>22.55150581288947</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="W52" t="n">
         <v>22.55195061693367</v>
       </c>
-      <c r="R52" t="n">
+      <c r="X52" t="n">
         <v>23.07399562196009</v>
       </c>
-      <c r="S52" t="n">
+      <c r="Y52" t="n">
         <v>28.26518586027719</v>
       </c>
-      <c r="T52" t="n">
+      <c r="Z52" t="n">
         <v>28.32476301359841</v>
       </c>
-      <c r="U52" t="n">
+      <c r="AA52" t="n">
         <v>28.48160010221322</v>
       </c>
-      <c r="V52" t="n">
+      <c r="AB52" t="n">
+        <v>36.55259105813414</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>20.13055259682177</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>22.34014792756766</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>405.4141645362462</v>
+      </c>
+      <c r="AF52" t="n">
         <v>23.34467994466695</v>
       </c>
-      <c r="W52" t="n">
+      <c r="AG52" t="n">
         <v>17.22435805025692</v>
       </c>
-      <c r="X52" t="n">
+      <c r="AH52" t="n">
+        <v>34.11106820124441</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>32.28532702345917</v>
+      </c>
+      <c r="AJ52" t="n">
         <v>25.64143729044896</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="AK52" t="n">
         <v>22.77518240164131</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AL52" t="n">
         <v>58.09338504717832</v>
       </c>
-      <c r="AA52" t="n">
+      <c r="AM52" t="n">
         <v>20.06410336714645</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AN52" t="n">
         <v>23.23031801197088</v>
       </c>
-      <c r="AC52" t="n">
+      <c r="AO52" t="n">
         <v>23.23631381107073</v>
       </c>
-      <c r="AD52" t="n">
+      <c r="AP52" t="n">
         <v>502.1257920607933</v>
       </c>
     </row>
@@ -5301,66 +7197,102 @@
         <v>120.9405160452137</v>
       </c>
       <c r="J53" t="n">
+        <v>147.4740521286404</v>
+      </c>
+      <c r="K53" t="n">
+        <v>96.65820846668369</v>
+      </c>
+      <c r="L53" t="n">
+        <v>99.44580747082176</v>
+      </c>
+      <c r="M53" t="n">
+        <v>501.5188846211522</v>
+      </c>
+      <c r="N53" t="n">
         <v>103.502731050368</v>
       </c>
-      <c r="K53" t="n">
+      <c r="O53" t="n">
         <v>62.87844103429585</v>
       </c>
-      <c r="L53" t="n">
+      <c r="P53" t="n">
+        <v>140.31964768727</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>138.3108438693805</v>
+      </c>
+      <c r="R53" t="n">
         <v>107.8322120285168</v>
       </c>
-      <c r="M53" t="n">
+      <c r="S53" t="n">
         <v>86.53402554617331</v>
       </c>
-      <c r="N53" t="n">
+      <c r="T53" t="n">
         <v>207.023115568364</v>
       </c>
-      <c r="O53" t="n">
+      <c r="U53" t="n">
         <v>76.3284876420893</v>
       </c>
-      <c r="P53" t="n">
+      <c r="V53" t="n">
         <v>87.27649489039234</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="W53" t="n">
         <v>87.27566710109211</v>
       </c>
-      <c r="R53" t="n">
+      <c r="X53" t="n">
         <v>88.25082152442798</v>
       </c>
-      <c r="S53" t="n">
+      <c r="Y53" t="n">
         <v>123.355160336552</v>
       </c>
-      <c r="T53" t="n">
+      <c r="Z53" t="n">
         <v>119.4661467610052</v>
       </c>
-      <c r="U53" t="n">
+      <c r="AA53" t="n">
         <v>121.9239455502651</v>
       </c>
-      <c r="V53" t="n">
+      <c r="AB53" t="n">
+        <v>148.1716333603532</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>97.81837862714978</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>100.6231630185806</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>511.4615870610638</v>
+      </c>
+      <c r="AF53" t="n">
         <v>104.6714663656668</v>
       </c>
-      <c r="W53" t="n">
+      <c r="AG53" t="n">
         <v>65.87954484138835</v>
       </c>
-      <c r="X53" t="n">
+      <c r="AH53" t="n">
+        <v>140.8625533597932</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>139.3131836919869</v>
+      </c>
+      <c r="AJ53" t="n">
         <v>108.7125768250307</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="AK53" t="n">
         <v>87.85719701513395</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AL53" t="n">
         <v>226.2442017489112</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AM53" t="n">
         <v>79.29032940705889</v>
       </c>
-      <c r="AB53" t="n">
+      <c r="AN53" t="n">
         <v>88.58988222308419</v>
       </c>
-      <c r="AC53" t="n">
+      <c r="AO53" t="n">
         <v>88.59456685041719</v>
       </c>
-      <c r="AD53" t="n">
+      <c r="AP53" t="n">
         <v>502.7654438927512</v>
       </c>
     </row>
@@ -5393,66 +7325,102 @@
         <v>341.6131031689626</v>
       </c>
       <c r="J54" t="n">
+        <v>425.6055456900576</v>
+      </c>
+      <c r="K54" t="n">
+        <v>499.9626577233014</v>
+      </c>
+      <c r="L54" t="n">
+        <v>364.2076663272471</v>
+      </c>
+      <c r="M54" t="n">
+        <v>9.300085387273114</v>
+      </c>
+      <c r="N54" t="n">
         <v>377.0325114485125</v>
       </c>
-      <c r="K54" t="n">
+      <c r="O54" t="n">
         <v>239.074225130733</v>
       </c>
-      <c r="L54" t="n">
+      <c r="P54" t="n">
+        <v>401.6107266385008</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>401.6245623553798</v>
+      </c>
+      <c r="R54" t="n">
         <v>300.3982238640485</v>
       </c>
-      <c r="M54" t="n">
+      <c r="S54" t="n">
         <v>259.5586325111231</v>
       </c>
-      <c r="N54" t="n">
+      <c r="T54" t="n">
         <v>500.5592144239063</v>
       </c>
-      <c r="O54" t="n">
+      <c r="U54" t="n">
         <v>291.4494658277567</v>
       </c>
-      <c r="P54" t="n">
+      <c r="V54" t="n">
         <v>260.1282965953596</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="W54" t="n">
         <v>260.1311004317873</v>
       </c>
-      <c r="R54" t="n">
+      <c r="X54" t="n">
         <v>263.8517098692468</v>
       </c>
-      <c r="S54" t="n">
+      <c r="Y54" t="n">
         <v>343.8009939543958</v>
       </c>
-      <c r="T54" t="n">
+      <c r="Z54" t="n">
         <v>331.3831914231299</v>
       </c>
-      <c r="U54" t="n">
+      <c r="AA54" t="n">
         <v>342.7311793760492</v>
       </c>
-      <c r="V54" t="n">
+      <c r="AB54" t="n">
+        <v>426.2894952999063</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>500.0098739847891</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>366.291680381613</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>58.82965274012292</v>
+      </c>
+      <c r="AF54" t="n">
         <v>379.108741920691</v>
       </c>
-      <c r="W54" t="n">
+      <c r="AG54" t="n">
         <v>243.4592313265553</v>
       </c>
-      <c r="X54" t="n">
+      <c r="AH54" t="n">
+        <v>402.6355076553551</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>402.7102343024348</v>
+      </c>
+      <c r="AJ54" t="n">
         <v>301.9526706761578</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="AK54" t="n">
         <v>261.913045850839</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AL54" t="n">
         <v>501.2014493155851</v>
       </c>
-      <c r="AA54" t="n">
+      <c r="AM54" t="n">
         <v>295.7228826590361</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="AN54" t="n">
         <v>262.4820066003152</v>
       </c>
-      <c r="AC54" t="n">
+      <c r="AO54" t="n">
         <v>262.4828974519186</v>
       </c>
-      <c r="AD54" t="n">
+      <c r="AP54" t="n">
         <v>501.5438028074243</v>
       </c>
     </row>
@@ -5485,66 +7453,102 @@
         <v>188.208268313684</v>
       </c>
       <c r="J55" t="n">
+        <v>234.1744265531445</v>
+      </c>
+      <c r="K55" t="n">
+        <v>218.104603253573</v>
+      </c>
+      <c r="L55" t="n">
+        <v>180.826887340435</v>
+      </c>
+      <c r="M55" t="n">
+        <v>510.8156666984789</v>
+      </c>
+      <c r="N55" t="n">
         <v>187.7300813962835</v>
       </c>
-      <c r="K55" t="n">
+      <c r="O55" t="n">
         <v>114.4518496478556</v>
       </c>
-      <c r="L55" t="n">
+      <c r="P55" t="n">
+        <v>225.3127358538936</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>225.0873863167185</v>
+      </c>
+      <c r="R55" t="n">
         <v>166.3868368537674</v>
       </c>
-      <c r="M55" t="n">
+      <c r="S55" t="n">
         <v>139.4741131689815</v>
       </c>
-      <c r="N55" t="n">
+      <c r="T55" t="n">
         <v>340.6554046639197</v>
       </c>
-      <c r="O55" t="n">
+      <c r="U55" t="n">
         <v>139.3206237943313</v>
       </c>
-      <c r="P55" t="n">
+      <c r="V55" t="n">
         <v>139.9454446893692</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="W55" t="n">
         <v>139.9469381337978</v>
       </c>
-      <c r="R55" t="n">
+      <c r="X55" t="n">
         <v>141.685247443436</v>
       </c>
-      <c r="S55" t="n">
+      <c r="Y55" t="n">
         <v>191.3054934746089</v>
       </c>
-      <c r="T55" t="n">
+      <c r="Z55" t="n">
         <v>184.4724893580683</v>
       </c>
-      <c r="U55" t="n">
+      <c r="AA55" t="n">
         <v>189.6419721819638</v>
       </c>
-      <c r="V55" t="n">
+      <c r="AB55" t="n">
+        <v>234.7170444868369</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>219.739211685835</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>182.4398005243525</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>527.7756658810275</v>
+      </c>
+      <c r="AF55" t="n">
         <v>189.3447534283698</v>
       </c>
-      <c r="W55" t="n">
+      <c r="AG55" t="n">
         <v>119.4452436291584</v>
       </c>
-      <c r="X55" t="n">
+      <c r="AH55" t="n">
+        <v>226.1299281031199</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>225.9705995418203</v>
+      </c>
+      <c r="AJ55" t="n">
         <v>167.5965108636109</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="AK55" t="n">
         <v>141.2878433117351</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AL55" t="n">
         <v>379.3963735190007</v>
       </c>
-      <c r="AA55" t="n">
+      <c r="AM55" t="n">
         <v>144.2759867210948</v>
       </c>
-      <c r="AB55" t="n">
+      <c r="AN55" t="n">
         <v>141.7492961367472</v>
       </c>
-      <c r="AC55" t="n">
+      <c r="AO55" t="n">
         <v>141.764479376204</v>
       </c>
-      <c r="AD55" t="n">
+      <c r="AP55" t="n">
         <v>502.0527215449907</v>
       </c>
     </row>
@@ -5577,66 +7581,102 @@
         <v>66.28566183744638</v>
       </c>
       <c r="J56" t="n">
+        <v>95.36892754735806</v>
+      </c>
+      <c r="K56" t="n">
+        <v>179.0583554366628</v>
+      </c>
+      <c r="L56" t="n">
+        <v>103.152786155263</v>
+      </c>
+      <c r="M56" t="n">
+        <v>520.3272045250349</v>
+      </c>
+      <c r="N56" t="n">
         <v>107.2614137262087</v>
       </c>
-      <c r="K56" t="n">
+      <c r="O56" t="n">
         <v>66.56722277637606</v>
       </c>
-      <c r="L56" t="n">
+      <c r="P56" t="n">
+        <v>109.0626909566251</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>107.2638114783051</v>
+      </c>
+      <c r="R56" t="n">
         <v>61.669495140563</v>
       </c>
-      <c r="M56" t="n">
+      <c r="S56" t="n">
         <v>68.00417236185639</v>
       </c>
-      <c r="N56" t="n">
+      <c r="T56" t="n">
         <v>150.1829025072427</v>
       </c>
-      <c r="O56" t="n">
+      <c r="U56" t="n">
         <v>80.1548639175366</v>
       </c>
-      <c r="P56" t="n">
+      <c r="V56" t="n">
         <v>67.68911386007835</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="W56" t="n">
         <v>67.68994634566748</v>
       </c>
-      <c r="R56" t="n">
+      <c r="X56" t="n">
         <v>69.20034330261699</v>
       </c>
-      <c r="S56" t="n">
+      <c r="Y56" t="n">
         <v>67.68975697182604</v>
       </c>
-      <c r="T56" t="n">
+      <c r="Z56" t="n">
         <v>510.1416953843682</v>
       </c>
-      <c r="U56" t="n">
+      <c r="AA56" t="n">
         <v>68.71087960795164</v>
       </c>
-      <c r="V56" t="n">
+      <c r="AB56" t="n">
+        <v>96.27164243552747</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>192.2833132747491</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>119.7078921069269</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>550.9240472147354</v>
+      </c>
+      <c r="AF56" t="n">
         <v>141.0867410198887</v>
       </c>
-      <c r="W56" t="n">
+      <c r="AG56" t="n">
         <v>73.35392920014073</v>
       </c>
-      <c r="X56" t="n">
+      <c r="AH56" t="n">
+        <v>955.8015784580114</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>124.2889136519861</v>
+      </c>
+      <c r="AJ56" t="n">
         <v>63.36797836196412</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="AK56" t="n">
         <v>510.2637868256933</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AL56" t="n">
         <v>160.8188798627879</v>
       </c>
-      <c r="AA56" t="n">
+      <c r="AM56" t="n">
         <v>388.3956158640938</v>
       </c>
-      <c r="AB56" t="n">
+      <c r="AN56" t="n">
         <v>517.0038413672837</v>
       </c>
-      <c r="AC56" t="n">
+      <c r="AO56" t="n">
         <v>506.7299366672928</v>
       </c>
-      <c r="AD56" t="n">
+      <c r="AP56" t="n">
         <v>501.9438106561426</v>
       </c>
     </row>
@@ -5669,66 +7709,102 @@
         <v>21.01097998958072</v>
       </c>
       <c r="J57" t="n">
+        <v>30.17689570509604</v>
+      </c>
+      <c r="K57" t="n">
+        <v>29.75669692315765</v>
+      </c>
+      <c r="L57" t="n">
+        <v>23.69882531909388</v>
+      </c>
+      <c r="M57" t="n">
+        <v>501.0940960569451</v>
+      </c>
+      <c r="N57" t="n">
         <v>24.86457355090542</v>
       </c>
-      <c r="K57" t="n">
+      <c r="O57" t="n">
         <v>15.21194050437331</v>
       </c>
-      <c r="L57" t="n">
+      <c r="P57" t="n">
+        <v>34.52947753449477</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>34.52787208809743</v>
+      </c>
+      <c r="R57" t="n">
         <v>19.20398611774275</v>
       </c>
-      <c r="M57" t="n">
+      <c r="S57" t="n">
         <v>19.47881653827914</v>
       </c>
-      <c r="N57" t="n">
+      <c r="T57" t="n">
         <v>48.54918909553891</v>
       </c>
-      <c r="O57" t="n">
+      <c r="U57" t="n">
         <v>18.15279394610898</v>
       </c>
-      <c r="P57" t="n">
+      <c r="V57" t="n">
         <v>19.4537397579616</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="W57" t="n">
         <v>19.45320932690997</v>
       </c>
-      <c r="R57" t="n">
+      <c r="X57" t="n">
         <v>19.73957381774528</v>
       </c>
-      <c r="S57" t="n">
+      <c r="Y57" t="n">
         <v>21.99612480966004</v>
       </c>
-      <c r="T57" t="n">
+      <c r="Z57" t="n">
         <v>502.5068022483757</v>
       </c>
-      <c r="U57" t="n">
+      <c r="AA57" t="n">
         <v>22.01169366043393</v>
       </c>
-      <c r="V57" t="n">
+      <c r="AB57" t="n">
+        <v>30.84084638786385</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>39.37727685449272</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>33.57440628263533</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>502.4272607008896</v>
+      </c>
+      <c r="AF57" t="n">
         <v>37.39583762785627</v>
       </c>
-      <c r="W57" t="n">
+      <c r="AG57" t="n">
         <v>18.87261379631557</v>
       </c>
-      <c r="X57" t="n">
+      <c r="AH57" t="n">
+        <v>781.857930158308</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>53.81233674531829</v>
+      </c>
+      <c r="AJ57" t="n">
         <v>19.99610440199611</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="AK57" t="n">
         <v>62.00258189332624</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AL57" t="n">
         <v>60.69635932772623</v>
       </c>
-      <c r="AA57" t="n">
+      <c r="AM57" t="n">
         <v>134.499376444297</v>
       </c>
-      <c r="AB57" t="n">
+      <c r="AN57" t="n">
         <v>515.7465974959015</v>
       </c>
-      <c r="AC57" t="n">
+      <c r="AO57" t="n">
         <v>504.4838028477636</v>
       </c>
-      <c r="AD57" t="n">
+      <c r="AP57" t="n">
         <v>504.5077975875766</v>
       </c>
     </row>
